--- a/MODBUS_MAP.xlsx
+++ b/MODBUS_MAP.xlsx
@@ -11,15 +11,15 @@
     <sheet name="Input Registers" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Holding Registers'!$A$1:$E$113</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Input Registers'!$A$1:$E$198</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Holding Registers'!$A$1:$E$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Input Registers'!$A$1:$E$213</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="736">
   <si>
     <t>section</t>
   </si>
@@ -255,6 +255,1035 @@
     <t>210.3</t>
   </si>
   <si>
+    <t>210.7</t>
+  </si>
+  <si>
+    <t>210.8</t>
+  </si>
+  <si>
+    <t>210.9</t>
+  </si>
+  <si>
+    <t>210.10</t>
+  </si>
+  <si>
+    <t>211.0</t>
+  </si>
+  <si>
+    <t>211.1</t>
+  </si>
+  <si>
+    <t>211.2</t>
+  </si>
+  <si>
+    <t>212-213</t>
+  </si>
+  <si>
+    <t>214-215</t>
+  </si>
+  <si>
+    <t>216-217</t>
+  </si>
+  <si>
+    <t>218-219</t>
+  </si>
+  <si>
+    <t>240.0</t>
+  </si>
+  <si>
+    <t>240.1</t>
+  </si>
+  <si>
+    <t>240.2</t>
+  </si>
+  <si>
+    <t>240.3</t>
+  </si>
+  <si>
+    <t>240.4</t>
+  </si>
+  <si>
+    <t>242-243</t>
+  </si>
+  <si>
+    <t>244-245</t>
+  </si>
+  <si>
+    <t>240.8</t>
+  </si>
+  <si>
+    <t>240.9</t>
+  </si>
+  <si>
+    <t>240.10</t>
+  </si>
+  <si>
+    <t>270.0</t>
+  </si>
+  <si>
+    <t>270.1</t>
+  </si>
+  <si>
+    <t>270.2</t>
+  </si>
+  <si>
+    <t>270.3</t>
+  </si>
+  <si>
+    <t>270.4</t>
+  </si>
+  <si>
+    <t>270.5</t>
+  </si>
+  <si>
+    <t>270.6</t>
+  </si>
+  <si>
+    <t>270.7</t>
+  </si>
+  <si>
+    <t>272-273</t>
+  </si>
+  <si>
+    <t>274-275</t>
+  </si>
+  <si>
+    <t>276-277</t>
+  </si>
+  <si>
+    <t>278-279</t>
+  </si>
+  <si>
+    <t>280-281</t>
+  </si>
+  <si>
+    <t>282-283</t>
+  </si>
+  <si>
+    <t>270.8</t>
+  </si>
+  <si>
+    <t>270.9</t>
+  </si>
+  <si>
+    <t>270.10</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>300.1</t>
+  </si>
+  <si>
+    <t>300.2</t>
+  </si>
+  <si>
+    <t>300.3</t>
+  </si>
+  <si>
+    <t>300.4</t>
+  </si>
+  <si>
+    <t>300.5</t>
+  </si>
+  <si>
+    <t>300.6</t>
+  </si>
+  <si>
+    <t>300.7</t>
+  </si>
+  <si>
+    <t>302-303</t>
+  </si>
+  <si>
+    <t>304-305</t>
+  </si>
+  <si>
+    <t>306-307</t>
+  </si>
+  <si>
+    <t>308-309</t>
+  </si>
+  <si>
+    <t>310-311</t>
+  </si>
+  <si>
+    <t>312-313</t>
+  </si>
+  <si>
+    <t>300.8</t>
+  </si>
+  <si>
+    <t>300.9</t>
+  </si>
+  <si>
+    <t>300.10</t>
+  </si>
+  <si>
+    <t>330.0</t>
+  </si>
+  <si>
+    <t>330.1</t>
+  </si>
+  <si>
+    <t>330.2</t>
+  </si>
+  <si>
+    <t>330.3</t>
+  </si>
+  <si>
+    <t>330.4</t>
+  </si>
+  <si>
+    <t>330.5</t>
+  </si>
+  <si>
+    <t>330.6</t>
+  </si>
+  <si>
+    <t>330.7</t>
+  </si>
+  <si>
+    <t>332-333</t>
+  </si>
+  <si>
+    <t>334-335</t>
+  </si>
+  <si>
+    <t>336-337</t>
+  </si>
+  <si>
+    <t>338-339</t>
+  </si>
+  <si>
+    <t>340-341</t>
+  </si>
+  <si>
+    <t>342-343</t>
+  </si>
+  <si>
+    <t>330.8</t>
+  </si>
+  <si>
+    <t>330.9</t>
+  </si>
+  <si>
+    <t>330.10</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>stCommands.cmdStartCommon.ixSignal</t>
+  </si>
+  <si>
+    <t>stCommands.cmdStopCommon.ixSignal</t>
+  </si>
+  <si>
+    <t>stCommands.cmdEmergencyStopCommon.ixSignal</t>
+  </si>
+  <si>
+    <t>stCommands.cmdResetAll.ixSignal</t>
+  </si>
+  <si>
+    <t>ICUR_PRECENT</t>
+  </si>
+  <si>
+    <t>rElectricityMeter</t>
+  </si>
+  <si>
+    <t>EFFICIENCY_LIMIT_RATE</t>
+  </si>
+  <si>
+    <t>ANNUNCIATOR_LIGHT_HZ</t>
+  </si>
+  <si>
+    <t>VFD_SMOOTH_SET_FREQUENCY</t>
+  </si>
+  <si>
+    <t>VFD_FREQUENCY_MAX</t>
+  </si>
+  <si>
+    <t>VFD_FREQUENCY_STEP</t>
+  </si>
+  <si>
+    <t>VFD_FREQUENCY_INACCURANCY</t>
+  </si>
+  <si>
+    <t>VFD_FREQUENCY_SYNC_TOLERANCE</t>
+  </si>
+  <si>
+    <t>MOTOR_FREQUENCY_CONVEYOR</t>
+  </si>
+  <si>
+    <t>MOTOR_FREQUENCY_DUMPER_CONVEYOR</t>
+  </si>
+  <si>
+    <t>MOTOR_FREQUENCY_DUMPER_ROTATION</t>
+  </si>
+  <si>
+    <t>CONVEYOR_DEAFULT_SPEED</t>
+  </si>
+  <si>
+    <t>BUNKER_WORK_PRECENT_1</t>
+  </si>
+  <si>
+    <t>BUNKER_WORK_PRECENT_2</t>
+  </si>
+  <si>
+    <t>BUNKER_WORK_PRECENT_3</t>
+  </si>
+  <si>
+    <t>BUNKER_MINIMAL_WEIGHT</t>
+  </si>
+  <si>
+    <t>MOTOR_VIBFEEDER_TEMP_POINTS.LL_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_VIBFEEDER_TEMP_POINTS.L_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_VIBFEEDER_TEMP_POINTS.H_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_VIBFEEDER_TEMP_POINTS.HH_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_VIBFEEDER_CURRENT_POINTS.LL_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_VIBFEEDER_CURRENT_POINTS.L_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_VIBFEEDER_CURRENT_POINTS.H_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_VIBFEEDER_CURRENT_POINTS.HH_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_VIBRATOR_CURRENT_POINTS.LL_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_VIBRATOR_CURRENT_POINTS.L_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_VIBRATOR_CURRENT_POINTS.H_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_VIBRATOR_CURRENT_POINTS.HH_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_CONVEYOR_CURRENT_POINTS.LL_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_CONVEYOR_CURRENT_POINTS.L_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_CONVEYOR_CURRENT_POINTS.H_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_CONVEYOR_CURRENT_POINTS.HH_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_ROTATION_CURRENT_POINTS.LL_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_ROTATION_CURRENT_POINTS.L_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_ROTATION_CURRENT_POINTS.H_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_ROTATION_CURRENT_POINTS.HH_Value</t>
+  </si>
+  <si>
+    <t>VIBRATOR_SETTINGS.TIME_ACTIVE</t>
+  </si>
+  <si>
+    <t>VIBRATOR_SETTINGS.TIME_PAUSE_VIBRATOR</t>
+  </si>
+  <si>
+    <t>VIBRATOR_SETTINGS.TIME_PAUSE_FB</t>
+  </si>
+  <si>
+    <t>PNEUMO_SETTINGS.TIME_ACTIVE</t>
+  </si>
+  <si>
+    <t>PNEUMO_SETTINGS.TIME_PAUSE_VIBRATOR</t>
+  </si>
+  <si>
+    <t>PNEUMO_SETTINGS.TIME_PAUSE_FB</t>
+  </si>
+  <si>
+    <t>TIME_WAITING_FEEDBACK</t>
+  </si>
+  <si>
+    <t>PNEUMATIC_COLLAPSE_TIME</t>
+  </si>
+  <si>
+    <t>DUMPER_CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_FIRST_SIGNAL</t>
+  </si>
+  <si>
+    <t>DUMPER_CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_FIRST_SIGNAL_PAUSE</t>
+  </si>
+  <si>
+    <t>DUMPER_CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_SECOND_SIGNAL</t>
+  </si>
+  <si>
+    <t>DUMPER_CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_SECOND_SIGNAL_PAUSE</t>
+  </si>
+  <si>
+    <t>CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_FIRST_SIGNAL</t>
+  </si>
+  <si>
+    <t>CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_FIRST_SIGNAL_PAUSE</t>
+  </si>
+  <si>
+    <t>CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_SECOND_SIGNAL</t>
+  </si>
+  <si>
+    <t>CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_SECOND_SIGNAL_PAUSE</t>
+  </si>
+  <si>
+    <t>stDumper.cmdStartConveyor</t>
+  </si>
+  <si>
+    <t>stDumper.cmdStopConveyor</t>
+  </si>
+  <si>
+    <t>stDumper.cmdEmergencyStop</t>
+  </si>
+  <si>
+    <t>stDumper.cmdReset</t>
+  </si>
+  <si>
+    <t>DUMPER_CONVEYOR_PRESTART_ALARM_SETTINGS.OPTION_ENABLE</t>
+  </si>
+  <si>
+    <t>stDumper.cmdSetModeRepair</t>
+  </si>
+  <si>
+    <t>stDumper.cmdSetModeManual</t>
+  </si>
+  <si>
+    <t>stDumper.cmdSetModeAuto</t>
+  </si>
+  <si>
+    <t>stDumper.cmdTurnLeft</t>
+  </si>
+  <si>
+    <t>stDumper.cmdTurnRight</t>
+  </si>
+  <si>
+    <t>stDumper.cmdStopRotation</t>
+  </si>
+  <si>
+    <t>stDumper.MotorConveyor[1].VFD.cmdSetFrequency</t>
+  </si>
+  <si>
+    <t>stDumper.MotorConveyor[2].VFD.cmdSetFrequency</t>
+  </si>
+  <si>
+    <t>stDumper.MotorRotation[1].VFD.cmdSetFrequency</t>
+  </si>
+  <si>
+    <t>stDumper.MotorRotation[2].VFD.cmdSetFrequency</t>
+  </si>
+  <si>
+    <t>stConveyor.cmdStartConveyor</t>
+  </si>
+  <si>
+    <t>stConveyor.cmdStopConveyor</t>
+  </si>
+  <si>
+    <t>stConveyor.cmdEmergencyStop</t>
+  </si>
+  <si>
+    <t>stConveyor.cmdReset</t>
+  </si>
+  <si>
+    <t>CONVEYOR_PRESTART_ALARM_SETTINGS.OPTION_ENABLE</t>
+  </si>
+  <si>
+    <t>stConveyor.MotorConveyor[1].VFD.cmdSetFrequency</t>
+  </si>
+  <si>
+    <t>stConveyor.MotorConveyor[2].VFD.cmdSetFrequency</t>
+  </si>
+  <si>
+    <t>stConveyor.cmdSetModeRepair</t>
+  </si>
+  <si>
+    <t>stConveyor.cmdSetModeManual</t>
+  </si>
+  <si>
+    <t>stConveyor.cmdSetModeAuto</t>
+  </si>
+  <si>
+    <t>stBunker[1].cmdStartFeeder</t>
+  </si>
+  <si>
+    <t>stBunker[1].cmdStopFeeder</t>
+  </si>
+  <si>
+    <t>stBunker[1].cmdEmergencyStopFeeder</t>
+  </si>
+  <si>
+    <t>stBunker[1].cmdReset</t>
+  </si>
+  <si>
+    <t>stBunker[1].cmdAddVib1</t>
+  </si>
+  <si>
+    <t>stBunker[1].cmdAddVib2</t>
+  </si>
+  <si>
+    <t>stBunker[1].cmdAddVib3</t>
+  </si>
+  <si>
+    <t>stBunker[1].cmdAddVib4</t>
+  </si>
+  <si>
+    <t>stBunker[1].MotorVibrator[1].VFD.cmdSetFrequency</t>
+  </si>
+  <si>
+    <t>stBunker[1].MotorVibrator[2].VFD.cmdSetFrequency</t>
+  </si>
+  <si>
+    <t>stBunker[1].MotorVibrator[3].VFD.cmdSetFrequency</t>
+  </si>
+  <si>
+    <t>stBunker[1].MotorVibrator[4].VFD.cmdSetFrequency</t>
+  </si>
+  <si>
+    <t>stBunker[1].MotorVibFeeder[1].VFD.cmdSetFrequency</t>
+  </si>
+  <si>
+    <t>stBunker[1].MotorVibFeeder[2].VFD.cmdSetFrequency</t>
+  </si>
+  <si>
+    <t>stBunker[1].cmdSetModeRepair</t>
+  </si>
+  <si>
+    <t>stBunker[1].cmdSetModeManual</t>
+  </si>
+  <si>
+    <t>stBunker[1].cmdSetModeAuto</t>
+  </si>
+  <si>
+    <t>stBunker[2].cmdStartFeeder</t>
+  </si>
+  <si>
+    <t>stBunker[2].cmdStopFeeder</t>
+  </si>
+  <si>
+    <t>stBunker[2].cmdEmergencyStopFeeder</t>
+  </si>
+  <si>
+    <t>stBunker[2].cmdReset</t>
+  </si>
+  <si>
+    <t>stBunker[2].cmdAddVib1</t>
+  </si>
+  <si>
+    <t>stBunker[2].cmdAddVib2</t>
+  </si>
+  <si>
+    <t>stBunker[2].cmdAddVib3</t>
+  </si>
+  <si>
+    <t>stBunker[2].cmdAddVib4</t>
+  </si>
+  <si>
+    <t>stBunker[2].MotorVibrator[1].VFD.cmdSetFrequency</t>
+  </si>
+  <si>
+    <t>stBunker[2].MotorVibrator[2].VFD.cmdSetFrequency</t>
+  </si>
+  <si>
+    <t>stBunker[2].MotorVibrator[3].VFD.cmdSetFrequency</t>
+  </si>
+  <si>
+    <t>stBunker[2].MotorVibrator[4].VFD.cmdSetFrequency</t>
+  </si>
+  <si>
+    <t>stBunker[2].MotorVibFeeder[1].VFD.cmdSetFrequency</t>
+  </si>
+  <si>
+    <t>stBunker[2].MotorVibFeeder[2].VFD.cmdSetFrequency</t>
+  </si>
+  <si>
+    <t>stBunker[2].cmdSetModeRepair</t>
+  </si>
+  <si>
+    <t>stBunker[2].cmdSetModeManual</t>
+  </si>
+  <si>
+    <t>stBunker[2].cmdSetModeAuto</t>
+  </si>
+  <si>
+    <t>stBunker[3].cmdStartFeeder</t>
+  </si>
+  <si>
+    <t>stBunker[3].cmdStopFeeder</t>
+  </si>
+  <si>
+    <t>stBunker[3].cmdEmergencyStopFeeder</t>
+  </si>
+  <si>
+    <t>stBunker[3].cmdReset</t>
+  </si>
+  <si>
+    <t>stBunker[3].cmdAddVib1</t>
+  </si>
+  <si>
+    <t>stBunker[3].cmdAddVib2</t>
+  </si>
+  <si>
+    <t>stBunker[3].cmdAddVib3</t>
+  </si>
+  <si>
+    <t>stBunker[3].cmdAddVib4</t>
+  </si>
+  <si>
+    <t>stBunker[3].MotorVibrator[1].VFD.cmdSetFrequency</t>
+  </si>
+  <si>
+    <t>stBunker[3].MotorVibrator[2].VFD.cmdSetFrequency</t>
+  </si>
+  <si>
+    <t>stBunker[3].MotorVibrator[3].VFD.cmdSetFrequency</t>
+  </si>
+  <si>
+    <t>stBunker[3].MotorVibrator[4].VFD.cmdSetFrequency</t>
+  </si>
+  <si>
+    <t>stBunker[3].MotorVibFeeder[1].VFD.cmdSetFrequency</t>
+  </si>
+  <si>
+    <t>stBunker[3].MotorVibFeeder[2].VFD.cmdSetFrequency</t>
+  </si>
+  <si>
+    <t>stBunker[3].cmdSetModeRepair</t>
+  </si>
+  <si>
+    <t>stBunker[3].cmdSetModeManual</t>
+  </si>
+  <si>
+    <t>stBunker[3].cmdSetModeAuto</t>
+  </si>
+  <si>
+    <t>Команда общего пуска</t>
+  </si>
+  <si>
+    <t>Команда общего останова</t>
+  </si>
+  <si>
+    <t>Команда общей аварийной остановки</t>
+  </si>
+  <si>
+    <t>Сброс всех ошибок</t>
+  </si>
+  <si>
+    <t>Коэффициент использования установленной мощности (в процентах)</t>
+  </si>
+  <si>
+    <t>Раход электроэнергии</t>
+  </si>
+  <si>
+    <t>Коэффицент ограничения производительности (0-1)</t>
+  </si>
+  <si>
+    <t>Световая индикация Гц</t>
+  </si>
+  <si>
+    <t>Опция плавного задания частоты</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Допустимая разница частот для синхронизации моторов</t>
+  </si>
+  <si>
+    <t>Частота мотора конвейера</t>
+  </si>
+  <si>
+    <t>Частота мотора конвейера отвалообразователя</t>
+  </si>
+  <si>
+    <t>Частота мотора поворота отвалообразователя</t>
+  </si>
+  <si>
+    <t>Скорость конвейера</t>
+  </si>
+  <si>
+    <t>Уставка пропорции шихтования для бункера 1</t>
+  </si>
+  <si>
+    <t>Уставка пропорции шихтования для бункера 2</t>
+  </si>
+  <si>
+    <t>Уставка пропорции шихтования для бункера 3</t>
+  </si>
+  <si>
+    <t>Уставка минимального веса бункера. Результат &lt;= считывается алгоритмом как пустой бункер.</t>
+  </si>
+  <si>
+    <t>Уставка Low-Low</t>
+  </si>
+  <si>
+    <t>Уставка Low</t>
+  </si>
+  <si>
+    <t>Уставка High</t>
+  </si>
+  <si>
+    <t>Уставка High-High</t>
+  </si>
+  <si>
+    <t>Время активной работы вибратора</t>
+  </si>
+  <si>
+    <t>Время паузы вибратора между циклами</t>
+  </si>
+  <si>
+    <t>Время паузы ФБ между подходами</t>
+  </si>
+  <si>
+    <t>Таймер ожидания пропавшего сигнала обратной связи работы механизма</t>
+  </si>
+  <si>
+    <t>Уставка времени таймера пневмообрушения</t>
+  </si>
+  <si>
+    <t>Время звучания первого сигнала</t>
+  </si>
+  <si>
+    <t>Пауза после первого сигнала</t>
+  </si>
+  <si>
+    <t>Время звучания второго сигнала</t>
+  </si>
+  <si>
+    <t>Пауза после втотрого сигнала</t>
+  </si>
+  <si>
+    <t>Команда пуска конвейера</t>
+  </si>
+  <si>
+    <t>Команда останова конвейера</t>
+  </si>
+  <si>
+    <t>Команда аварийной остановки</t>
+  </si>
+  <si>
+    <t>Сброс ошибок</t>
+  </si>
+  <si>
+    <t>Опция на включение ППЗ в алгоритм</t>
+  </si>
+  <si>
+    <t>Установить режим Ремонт</t>
+  </si>
+  <si>
+    <t>Установить режим Ручной</t>
+  </si>
+  <si>
+    <t>Установить режим Авто</t>
+  </si>
+  <si>
+    <t>Команда поворота влево</t>
+  </si>
+  <si>
+    <t>Команда поворота вправо</t>
+  </si>
+  <si>
+    <t>Команда остановка поворота</t>
+  </si>
+  <si>
+    <t>Ручное задание частоты</t>
+  </si>
+  <si>
+    <t>Команда "Пуск питателя"</t>
+  </si>
+  <si>
+    <t>Команда "Стоп питателя"</t>
+  </si>
+  <si>
+    <t>Команда "Аварийная остановка"</t>
+  </si>
+  <si>
+    <t>Добавление мотора вибратора 1 в работу</t>
+  </si>
+  <si>
+    <t>Добавление мотора вибратора 2 в работу</t>
+  </si>
+  <si>
+    <t>Добавление мотора вибратора 3 в работу</t>
+  </si>
+  <si>
+    <t>Добавление мотора вибратора 4 в работу</t>
+  </si>
+  <si>
+    <t>Общие системные статусы (0-29)</t>
+  </si>
+  <si>
+    <t>Бункер 1 (30-89)</t>
+  </si>
+  <si>
+    <t>Бункер 2 (90-149)</t>
+  </si>
+  <si>
+    <t>Бункер 3 (150-209)</t>
+  </si>
+  <si>
+    <t>Отвалообразователь - Конвейер (210-239)</t>
+  </si>
+  <si>
+    <t>Отвалообразователь - Поворот (240-269)</t>
+  </si>
+  <si>
+    <t>Конвейер (270-299)</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>30.1</t>
+  </si>
+  <si>
+    <t>30.2</t>
+  </si>
+  <si>
+    <t>30.3</t>
+  </si>
+  <si>
+    <t>30.4</t>
+  </si>
+  <si>
+    <t>30.5</t>
+  </si>
+  <si>
+    <t>30.6</t>
+  </si>
+  <si>
+    <t>30.7</t>
+  </si>
+  <si>
+    <t>30.8</t>
+  </si>
+  <si>
+    <t>30.12</t>
+  </si>
+  <si>
+    <t>30.13</t>
+  </si>
+  <si>
+    <t>30.14</t>
+  </si>
+  <si>
+    <t>48-49</t>
+  </si>
+  <si>
+    <t>50-51</t>
+  </si>
+  <si>
+    <t>52-53</t>
+  </si>
+  <si>
+    <t>54-55</t>
+  </si>
+  <si>
+    <t>56-57</t>
+  </si>
+  <si>
+    <t>58-59</t>
+  </si>
+  <si>
+    <t>60-61</t>
+  </si>
+  <si>
+    <t>70-71</t>
+  </si>
+  <si>
+    <t>72-73</t>
+  </si>
+  <si>
+    <t>74-75</t>
+  </si>
+  <si>
+    <t>76-77</t>
+  </si>
+  <si>
+    <t>78-79</t>
+  </si>
+  <si>
+    <t>80-81</t>
+  </si>
+  <si>
+    <t>82-83</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>90.1</t>
+  </si>
+  <si>
+    <t>90.2</t>
+  </si>
+  <si>
+    <t>90.3</t>
+  </si>
+  <si>
+    <t>90.4</t>
+  </si>
+  <si>
+    <t>90.5</t>
+  </si>
+  <si>
+    <t>90.6</t>
+  </si>
+  <si>
+    <t>90.7</t>
+  </si>
+  <si>
+    <t>90.8</t>
+  </si>
+  <si>
+    <t>90.12</t>
+  </si>
+  <si>
+    <t>90.13</t>
+  </si>
+  <si>
+    <t>90.14</t>
+  </si>
+  <si>
+    <t>100-101</t>
+  </si>
+  <si>
+    <t>102-103</t>
+  </si>
+  <si>
+    <t>104-105</t>
+  </si>
+  <si>
+    <t>106-107</t>
+  </si>
+  <si>
+    <t>108-109</t>
+  </si>
+  <si>
+    <t>110-111</t>
+  </si>
+  <si>
+    <t>112-113</t>
+  </si>
+  <si>
+    <t>114-115</t>
+  </si>
+  <si>
+    <t>116-117</t>
+  </si>
+  <si>
+    <t>118-119</t>
+  </si>
+  <si>
+    <t>120-121</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>150.1</t>
+  </si>
+  <si>
+    <t>150.2</t>
+  </si>
+  <si>
+    <t>150.3</t>
+  </si>
+  <si>
+    <t>150.4</t>
+  </si>
+  <si>
+    <t>150.5</t>
+  </si>
+  <si>
+    <t>150.6</t>
+  </si>
+  <si>
+    <t>150.7</t>
+  </si>
+  <si>
+    <t>150.8</t>
+  </si>
+  <si>
+    <t>150.12</t>
+  </si>
+  <si>
+    <t>150.13</t>
+  </si>
+  <si>
+    <t>150.14</t>
+  </si>
+  <si>
+    <t>180-181</t>
+  </si>
+  <si>
+    <t>190-191</t>
+  </si>
+  <si>
+    <t>192-193</t>
+  </si>
+  <si>
+    <t>194-195</t>
+  </si>
+  <si>
+    <t>196-197</t>
+  </si>
+  <si>
+    <t>198-199</t>
+  </si>
+  <si>
+    <t>200-201</t>
+  </si>
+  <si>
+    <t>202-203</t>
+  </si>
+  <si>
     <t>210.4</t>
   </si>
   <si>
@@ -264,852 +1293,6 @@
     <t>210.6</t>
   </si>
   <si>
-    <t>210.7</t>
-  </si>
-  <si>
-    <t>210.8</t>
-  </si>
-  <si>
-    <t>212-213</t>
-  </si>
-  <si>
-    <t>214-215</t>
-  </si>
-  <si>
-    <t>216-217</t>
-  </si>
-  <si>
-    <t>218-219</t>
-  </si>
-  <si>
-    <t>240.0</t>
-  </si>
-  <si>
-    <t>240.1</t>
-  </si>
-  <si>
-    <t>240.2</t>
-  </si>
-  <si>
-    <t>240.3</t>
-  </si>
-  <si>
-    <t>240.4</t>
-  </si>
-  <si>
-    <t>242-243</t>
-  </si>
-  <si>
-    <t>244-245</t>
-  </si>
-  <si>
-    <t>210.9</t>
-  </si>
-  <si>
-    <t>210.10</t>
-  </si>
-  <si>
-    <t>270.0</t>
-  </si>
-  <si>
-    <t>270.1</t>
-  </si>
-  <si>
-    <t>270.2</t>
-  </si>
-  <si>
-    <t>270.3</t>
-  </si>
-  <si>
-    <t>272-273</t>
-  </si>
-  <si>
-    <t>274-275</t>
-  </si>
-  <si>
-    <t>276-277</t>
-  </si>
-  <si>
-    <t>278-279</t>
-  </si>
-  <si>
-    <t>280-281</t>
-  </si>
-  <si>
-    <t>282-283</t>
-  </si>
-  <si>
-    <t>300.0</t>
-  </si>
-  <si>
-    <t>300.1</t>
-  </si>
-  <si>
-    <t>300.2</t>
-  </si>
-  <si>
-    <t>300.3</t>
-  </si>
-  <si>
-    <t>302-303</t>
-  </si>
-  <si>
-    <t>304-305</t>
-  </si>
-  <si>
-    <t>306-307</t>
-  </si>
-  <si>
-    <t>308-309</t>
-  </si>
-  <si>
-    <t>310-311</t>
-  </si>
-  <si>
-    <t>312-313</t>
-  </si>
-  <si>
-    <t>330.0</t>
-  </si>
-  <si>
-    <t>330.1</t>
-  </si>
-  <si>
-    <t>330.2</t>
-  </si>
-  <si>
-    <t>330.3</t>
-  </si>
-  <si>
-    <t>332-333</t>
-  </si>
-  <si>
-    <t>334-335</t>
-  </si>
-  <si>
-    <t>336-337</t>
-  </si>
-  <si>
-    <t>338-339</t>
-  </si>
-  <si>
-    <t>340-341</t>
-  </si>
-  <si>
-    <t>342-343</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>REAL</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>stCommands.cmdStartCommon.ixSignal</t>
-  </si>
-  <si>
-    <t>stCommands.cmdStopCommon.ixSignal</t>
-  </si>
-  <si>
-    <t>stCommands.cmdEmergencyStopCommon.ixSignal</t>
-  </si>
-  <si>
-    <t>stCommands.cmdResetAll.ixSignal</t>
-  </si>
-  <si>
-    <t>ICUR_PRECENT</t>
-  </si>
-  <si>
-    <t>rElectricityMeter</t>
-  </si>
-  <si>
-    <t>EFFICIENCY_LIMIT_RATE</t>
-  </si>
-  <si>
-    <t>ANNUNCIATOR_LIGHT_HZ</t>
-  </si>
-  <si>
-    <t>VFD_SMOOTH_SET_FREQUENCY</t>
-  </si>
-  <si>
-    <t>VFD_FREQUENCY_MAX</t>
-  </si>
-  <si>
-    <t>VFD_FREQUENCY_STEP</t>
-  </si>
-  <si>
-    <t>VFD_FREQUENCY_INACCURANCY</t>
-  </si>
-  <si>
-    <t>VFD_FREQUENCY_SYNC_TOLERANCE</t>
-  </si>
-  <si>
-    <t>MOTOR_FREQUENCY_CONVEYOR</t>
-  </si>
-  <si>
-    <t>MOTOR_FREQUENCY_DUMPER_CONVEYOR</t>
-  </si>
-  <si>
-    <t>MOTOR_FREQUENCY_DUMPER_ROTATION</t>
-  </si>
-  <si>
-    <t>CONVEYOR_DEAFULT_SPEED</t>
-  </si>
-  <si>
-    <t>BUNKER_WORK_PRECENT_1</t>
-  </si>
-  <si>
-    <t>BUNKER_WORK_PRECENT_2</t>
-  </si>
-  <si>
-    <t>BUNKER_WORK_PRECENT_3</t>
-  </si>
-  <si>
-    <t>BUNKER_MINIMAL_WEIGHT</t>
-  </si>
-  <si>
-    <t>MOTOR_VIBFEEDER_TEMP_POINTS.LL_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_VIBFEEDER_TEMP_POINTS.L_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_VIBFEEDER_TEMP_POINTS.H_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_VIBFEEDER_TEMP_POINTS.HH_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_VIBFEEDER_CURRENT_POINTS.LL_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_VIBFEEDER_CURRENT_POINTS.L_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_VIBFEEDER_CURRENT_POINTS.H_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_VIBFEEDER_CURRENT_POINTS.HH_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_VIBRATOR_CURRENT_POINTS.LL_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_VIBRATOR_CURRENT_POINTS.L_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_VIBRATOR_CURRENT_POINTS.H_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_VIBRATOR_CURRENT_POINTS.HH_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_CONVEYOR_CURRENT_POINTS.LL_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_CONVEYOR_CURRENT_POINTS.L_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_CONVEYOR_CURRENT_POINTS.H_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_CONVEYOR_CURRENT_POINTS.HH_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_ROTATION_CURRENT_POINTS.LL_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_ROTATION_CURRENT_POINTS.L_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_ROTATION_CURRENT_POINTS.H_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_ROTATION_CURRENT_POINTS.HH_Value</t>
-  </si>
-  <si>
-    <t>VIBRATOR_SETTINGS.TIME_ACTIVE</t>
-  </si>
-  <si>
-    <t>VIBRATOR_SETTINGS.TIME_PAUSE_VIBRATOR</t>
-  </si>
-  <si>
-    <t>VIBRATOR_SETTINGS.TIME_PAUSE_FB</t>
-  </si>
-  <si>
-    <t>PNEUMO_SETTINGS.TIME_ACTIVE</t>
-  </si>
-  <si>
-    <t>PNEUMO_SETTINGS.TIME_PAUSE_VIBRATOR</t>
-  </si>
-  <si>
-    <t>PNEUMO_SETTINGS.TIME_PAUSE_FB</t>
-  </si>
-  <si>
-    <t>TIME_WAITING_FEEDBACK</t>
-  </si>
-  <si>
-    <t>PNEUMATIC_COLLAPSE_TIME</t>
-  </si>
-  <si>
-    <t>DUMPER_CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_FIRST_SIGNAL</t>
-  </si>
-  <si>
-    <t>DUMPER_CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_FIRST_SIGNAL_PAUSE</t>
-  </si>
-  <si>
-    <t>DUMPER_CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_SECOND_SIGNAL</t>
-  </si>
-  <si>
-    <t>DUMPER_CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_SECOND_SIGNAL_PAUSE</t>
-  </si>
-  <si>
-    <t>CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_FIRST_SIGNAL</t>
-  </si>
-  <si>
-    <t>CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_FIRST_SIGNAL_PAUSE</t>
-  </si>
-  <si>
-    <t>CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_SECOND_SIGNAL</t>
-  </si>
-  <si>
-    <t>CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_SECOND_SIGNAL_PAUSE</t>
-  </si>
-  <si>
-    <t>stDumper.cmdStartConveyor</t>
-  </si>
-  <si>
-    <t>stDumper.cmdStopConveyor</t>
-  </si>
-  <si>
-    <t>stDumper.cmdEmergencyStop</t>
-  </si>
-  <si>
-    <t>stDumper.cmdTurnLeft</t>
-  </si>
-  <si>
-    <t>stDumper.cmdTurnRight</t>
-  </si>
-  <si>
-    <t>stDumper.cmdStopRotation</t>
-  </si>
-  <si>
-    <t>stDumper.cmdReset</t>
-  </si>
-  <si>
-    <t>DUMPER_CONVEYOR_PRESTART_ALARM_SETTINGS.OPTION_ENABLE</t>
-  </si>
-  <si>
-    <t>stDumper.cmdSetModeRepair</t>
-  </si>
-  <si>
-    <t>stDumper.cmdSetModeManual</t>
-  </si>
-  <si>
-    <t>stDumper.cmdSetModeAuto</t>
-  </si>
-  <si>
-    <t>stDumper.MotorConveyor[1].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stDumper.MotorConveyor[2].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stDumper.MotorRotation[1].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stDumper.MotorRotation[2].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stConveyor.cmdStartConveyor</t>
-  </si>
-  <si>
-    <t>stConveyor.cmdStopConveyor</t>
-  </si>
-  <si>
-    <t>stConveyor.cmdEmergencyStop</t>
-  </si>
-  <si>
-    <t>stConveyor.cmdReset</t>
-  </si>
-  <si>
-    <t>CONVEYOR_PRESTART_ALARM_SETTINGS.OPTION_ENABLE</t>
-  </si>
-  <si>
-    <t>stConveyor.MotorConveyor[1].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stConveyor.MotorConveyor[2].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stConveyor.cmdSetModeRepair</t>
-  </si>
-  <si>
-    <t>stConveyor.cmdSetModeManual</t>
-  </si>
-  <si>
-    <t>stConveyor.cmdSetModeAuto</t>
-  </si>
-  <si>
-    <t>stBunker[1].cmdStartFeeder</t>
-  </si>
-  <si>
-    <t>stBunker[1].cmdStopFeeder</t>
-  </si>
-  <si>
-    <t>stBunker[1].cmdEmergencyStopFeeder</t>
-  </si>
-  <si>
-    <t>stBunker[1].cmdReset</t>
-  </si>
-  <si>
-    <t>stBunker[1].MotorVibrator[1].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[1].MotorVibrator[2].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[1].MotorVibrator[3].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[1].MotorVibrator[4].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[1].MotorVibFeeder[1].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[1].MotorVibFeeder[2].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[2].cmdStartFeeder</t>
-  </si>
-  <si>
-    <t>stBunker[2].cmdStopFeeder</t>
-  </si>
-  <si>
-    <t>stBunker[2].cmdEmergencyStopFeeder</t>
-  </si>
-  <si>
-    <t>stBunker[2].cmdReset</t>
-  </si>
-  <si>
-    <t>stBunker[2].MotorVibrator[1].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[2].MotorVibrator[2].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[2].MotorVibrator[3].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[2].MotorVibrator[4].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[2].MotorVibFeeder[1].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[2].MotorVibFeeder[2].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[3].cmdStartFeeder</t>
-  </si>
-  <si>
-    <t>stBunker[3].cmdStopFeeder</t>
-  </si>
-  <si>
-    <t>stBunker[3].cmdEmergencyStopFeeder</t>
-  </si>
-  <si>
-    <t>stBunker[3].cmdReset</t>
-  </si>
-  <si>
-    <t>stBunker[3].MotorVibrator[1].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[3].MotorVibrator[2].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[3].MotorVibrator[3].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[3].MotorVibrator[4].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[3].MotorVibFeeder[1].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[3].MotorVibFeeder[2].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>Команда общего пуска</t>
-  </si>
-  <si>
-    <t>Команда общего останова</t>
-  </si>
-  <si>
-    <t>Команда общей аварийной остановки</t>
-  </si>
-  <si>
-    <t>Сброс всех ошибок</t>
-  </si>
-  <si>
-    <t>Коэффициент использования установленной мощности (в процентах)</t>
-  </si>
-  <si>
-    <t>Раход электроэнергии</t>
-  </si>
-  <si>
-    <t>Коэффицент ограничения производительности (0-1)</t>
-  </si>
-  <si>
-    <t>Световая индикация Гц</t>
-  </si>
-  <si>
-    <t>Опция плавного задания частоты</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Допустимая разница частот для синхронизации моторов</t>
-  </si>
-  <si>
-    <t>Частота мотора конвейера</t>
-  </si>
-  <si>
-    <t>Частота мотора конвейера отвалообразователя</t>
-  </si>
-  <si>
-    <t>Частота мотора поворота отвалообразователя</t>
-  </si>
-  <si>
-    <t>Скорость конвейера</t>
-  </si>
-  <si>
-    <t>Уставка пропорции шихтования для бункера 1</t>
-  </si>
-  <si>
-    <t>Уставка пропорции шихтования для бункера 2</t>
-  </si>
-  <si>
-    <t>Уставка пропорции шихтования для бункера 3</t>
-  </si>
-  <si>
-    <t>Уставка минимального веса бункера. Результат &lt;= считывается алгоритмом как пустой бункер.</t>
-  </si>
-  <si>
-    <t>Уставка Low-Low</t>
-  </si>
-  <si>
-    <t>Уставка Low</t>
-  </si>
-  <si>
-    <t>Уставка High</t>
-  </si>
-  <si>
-    <t>Уставка High-High</t>
-  </si>
-  <si>
-    <t>Время активной работы вибратора</t>
-  </si>
-  <si>
-    <t>Время паузы вибратора между циклами</t>
-  </si>
-  <si>
-    <t>Время паузы ФБ между подходами</t>
-  </si>
-  <si>
-    <t>Таймер ожидания пропавшего сигнала обратной связи работы механизма</t>
-  </si>
-  <si>
-    <t>Уставка времени таймера пневмообрушения</t>
-  </si>
-  <si>
-    <t>Время звучания первого сигнала</t>
-  </si>
-  <si>
-    <t>Пауза после первого сигнала</t>
-  </si>
-  <si>
-    <t>Время звучания второго сигнала</t>
-  </si>
-  <si>
-    <t>Пауза после втотрого сигнала</t>
-  </si>
-  <si>
-    <t>Команда пуска конвейера</t>
-  </si>
-  <si>
-    <t>Команда останова конвейера</t>
-  </si>
-  <si>
-    <t>Команда аварийной остановки</t>
-  </si>
-  <si>
-    <t>Команда поворота влево</t>
-  </si>
-  <si>
-    <t>Команда поворота вправо</t>
-  </si>
-  <si>
-    <t>Команда остановка поворота</t>
-  </si>
-  <si>
-    <t>Сброс ошибок</t>
-  </si>
-  <si>
-    <t>Опция на включение ППЗ в алгоритм</t>
-  </si>
-  <si>
-    <t>Установить режим Ремонт</t>
-  </si>
-  <si>
-    <t>Установить режим Ручной</t>
-  </si>
-  <si>
-    <t>Установить режим Авто</t>
-  </si>
-  <si>
-    <t>Ручное задание частоты</t>
-  </si>
-  <si>
-    <t>Команда "Пуск питателя"</t>
-  </si>
-  <si>
-    <t>Команда "Стоп питателя"</t>
-  </si>
-  <si>
-    <t>Команда "Аварийная остановка"</t>
-  </si>
-  <si>
-    <t>Общие системные статусы (0-29)</t>
-  </si>
-  <si>
-    <t>Бункер 1 (30-89)</t>
-  </si>
-  <si>
-    <t>Бункер 2 (90-149)</t>
-  </si>
-  <si>
-    <t>Бункер 3 (150-209)</t>
-  </si>
-  <si>
-    <t>Отвалообразователь - Конвейер (210-239)</t>
-  </si>
-  <si>
-    <t>Отвалообразователь - Поворот (240-269)</t>
-  </si>
-  <si>
-    <t>Конвейер (270-299)</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>30.1</t>
-  </si>
-  <si>
-    <t>30.2</t>
-  </si>
-  <si>
-    <t>30.3</t>
-  </si>
-  <si>
-    <t>30.4</t>
-  </si>
-  <si>
-    <t>30.5</t>
-  </si>
-  <si>
-    <t>30.6</t>
-  </si>
-  <si>
-    <t>30.7</t>
-  </si>
-  <si>
-    <t>30.8</t>
-  </si>
-  <si>
-    <t>48-49</t>
-  </si>
-  <si>
-    <t>50-51</t>
-  </si>
-  <si>
-    <t>52-53</t>
-  </si>
-  <si>
-    <t>54-55</t>
-  </si>
-  <si>
-    <t>56-57</t>
-  </si>
-  <si>
-    <t>58-59</t>
-  </si>
-  <si>
-    <t>60-61</t>
-  </si>
-  <si>
-    <t>70-71</t>
-  </si>
-  <si>
-    <t>72-73</t>
-  </si>
-  <si>
-    <t>74-75</t>
-  </si>
-  <si>
-    <t>76-77</t>
-  </si>
-  <si>
-    <t>78-79</t>
-  </si>
-  <si>
-    <t>80-81</t>
-  </si>
-  <si>
-    <t>82-83</t>
-  </si>
-  <si>
-    <t>90.0</t>
-  </si>
-  <si>
-    <t>90.1</t>
-  </si>
-  <si>
-    <t>90.2</t>
-  </si>
-  <si>
-    <t>90.3</t>
-  </si>
-  <si>
-    <t>90.4</t>
-  </si>
-  <si>
-    <t>90.5</t>
-  </si>
-  <si>
-    <t>90.6</t>
-  </si>
-  <si>
-    <t>90.7</t>
-  </si>
-  <si>
-    <t>90.8</t>
-  </si>
-  <si>
-    <t>100-101</t>
-  </si>
-  <si>
-    <t>102-103</t>
-  </si>
-  <si>
-    <t>104-105</t>
-  </si>
-  <si>
-    <t>106-107</t>
-  </si>
-  <si>
-    <t>108-109</t>
-  </si>
-  <si>
-    <t>110-111</t>
-  </si>
-  <si>
-    <t>112-113</t>
-  </si>
-  <si>
-    <t>114-115</t>
-  </si>
-  <si>
-    <t>116-117</t>
-  </si>
-  <si>
-    <t>118-119</t>
-  </si>
-  <si>
-    <t>120-121</t>
-  </si>
-  <si>
-    <t>150.0</t>
-  </si>
-  <si>
-    <t>150.1</t>
-  </si>
-  <si>
-    <t>150.2</t>
-  </si>
-  <si>
-    <t>150.3</t>
-  </si>
-  <si>
-    <t>150.4</t>
-  </si>
-  <si>
-    <t>150.5</t>
-  </si>
-  <si>
-    <t>150.6</t>
-  </si>
-  <si>
-    <t>150.7</t>
-  </si>
-  <si>
-    <t>150.8</t>
-  </si>
-  <si>
-    <t>180-181</t>
-  </si>
-  <si>
-    <t>190-191</t>
-  </si>
-  <si>
-    <t>192-193</t>
-  </si>
-  <si>
-    <t>194-195</t>
-  </si>
-  <si>
-    <t>196-197</t>
-  </si>
-  <si>
-    <t>198-199</t>
-  </si>
-  <si>
-    <t>200-201</t>
-  </si>
-  <si>
-    <t>202-203</t>
-  </si>
-  <si>
     <t>210.11</t>
   </si>
   <si>
@@ -1125,15 +1308,6 @@
     <t>210.15</t>
   </si>
   <si>
-    <t>211.0</t>
-  </si>
-  <si>
-    <t>211.1</t>
-  </si>
-  <si>
-    <t>211.2</t>
-  </si>
-  <si>
     <t>211.3</t>
   </si>
   <si>
@@ -1161,6 +1335,15 @@
     <t>211.11</t>
   </si>
   <si>
+    <t>211.12</t>
+  </si>
+  <si>
+    <t>211.13</t>
+  </si>
+  <si>
+    <t>211.14</t>
+  </si>
+  <si>
     <t>220-221</t>
   </si>
   <si>
@@ -1179,27 +1362,6 @@
     <t>252-253</t>
   </si>
   <si>
-    <t>270.4</t>
-  </si>
-  <si>
-    <t>270.5</t>
-  </si>
-  <si>
-    <t>270.6</t>
-  </si>
-  <si>
-    <t>270.7</t>
-  </si>
-  <si>
-    <t>270.8</t>
-  </si>
-  <si>
-    <t>270.9</t>
-  </si>
-  <si>
-    <t>270.10</t>
-  </si>
-  <si>
     <t>270.11</t>
   </si>
   <si>
@@ -1251,6 +1413,15 @@
     <t>271.11</t>
   </si>
   <si>
+    <t>271.12</t>
+  </si>
+  <si>
+    <t>271.13</t>
+  </si>
+  <si>
+    <t>271.14</t>
+  </si>
+  <si>
     <t>xStateAutoWorking</t>
   </si>
   <si>
@@ -1317,6 +1488,15 @@
     <t>stBunker[1].fbBtnEmergencyStop.qxSignal</t>
   </si>
   <si>
+    <t>stBunker[1].xStateRemoteAuto</t>
+  </si>
+  <si>
+    <t>stBunker[1].xStateRemoteManual</t>
+  </si>
+  <si>
+    <t>stBunker[1].xStateRemoteRepair</t>
+  </si>
+  <si>
     <t>stBunker[1].rWeight</t>
   </si>
   <si>
@@ -1422,6 +1602,15 @@
     <t>stBunker[2].fbBtnEmergencyStop.qxSignal</t>
   </si>
   <si>
+    <t>stBunker[2].xStateRemoteAuto</t>
+  </si>
+  <si>
+    <t>stBunker[2].xStateRemoteManual</t>
+  </si>
+  <si>
+    <t>stBunker[2].xStateRemoteRepair</t>
+  </si>
+  <si>
     <t>stBunker[2].rWeight</t>
   </si>
   <si>
@@ -1527,6 +1716,15 @@
     <t>stBunker[3].fbBtnEmergencyStop.qxSignal</t>
   </si>
   <si>
+    <t>stBunker[3].xStateRemoteAuto</t>
+  </si>
+  <si>
+    <t>stBunker[3].xStateRemoteManual</t>
+  </si>
+  <si>
+    <t>stBunker[3].xStateRemoteRepair</t>
+  </si>
+  <si>
     <t>stBunker[3].rWeight</t>
   </si>
   <si>
@@ -1689,6 +1887,15 @@
     <t>stDumper.fbYS1.qxSignal</t>
   </si>
   <si>
+    <t>stDumper.xStateRemoteAuto</t>
+  </si>
+  <si>
+    <t>stDumper.xStateRemoteManual</t>
+  </si>
+  <si>
+    <t>stDumper.xStateRemoteRepair</t>
+  </si>
+  <si>
     <t>stDumper.MotorConveyor[1].VFD.qrOutFrequency</t>
   </si>
   <si>
@@ -1821,6 +2028,15 @@
     <t>stConveyor.fbYS1.qxSignal</t>
   </si>
   <si>
+    <t>stConveyor.xStateRemoteAuto</t>
+  </si>
+  <si>
+    <t>stConveyor.xStateRemoteManual</t>
+  </si>
+  <si>
+    <t>stConveyor.xStateRemoteRepair</t>
+  </si>
+  <si>
     <t>stConveyor.MotorConveyor[1].VFD.qrOutFrequency</t>
   </si>
   <si>
@@ -1894,6 +2110,15 @@
   </si>
   <si>
     <t>Кнопка "Аварийная остановка" NC</t>
+  </si>
+  <si>
+    <t>Режим работы: Автоматический</t>
+  </si>
+  <si>
+    <t>Режим работы: Ручной</t>
+  </si>
+  <si>
+    <t>Режим работы: Ремонт</t>
   </si>
   <si>
     <t>Весы бункера</t>
@@ -2388,7 +2613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2446,13 +2671,13 @@
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -2463,13 +2688,13 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -2480,13 +2705,13 @@
         <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>243</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -2497,13 +2722,13 @@
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -2514,13 +2739,13 @@
         <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>245</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -2531,13 +2756,13 @@
         <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -2548,13 +2773,13 @@
         <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -2565,13 +2790,13 @@
         <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>248</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -2582,13 +2807,13 @@
         <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -2599,13 +2824,13 @@
         <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>250</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -2616,13 +2841,13 @@
         <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>250</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -2633,13 +2858,13 @@
         <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>250</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -2650,13 +2875,13 @@
         <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -2667,13 +2892,13 @@
         <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -2684,13 +2909,13 @@
         <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>253</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -2701,13 +2926,13 @@
         <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -2718,13 +2943,13 @@
         <v>33</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>255</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -2735,13 +2960,13 @@
         <v>34</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -2752,13 +2977,13 @@
         <v>35</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -2769,13 +2994,13 @@
         <v>36</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -2786,13 +3011,13 @@
         <v>37</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -2803,13 +3028,13 @@
         <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -2820,13 +3045,13 @@
         <v>39</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -2837,13 +3062,13 @@
         <v>40</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -2854,13 +3079,13 @@
         <v>41</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -2871,13 +3096,13 @@
         <v>42</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -2888,13 +3113,13 @@
         <v>43</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -2905,13 +3130,13 @@
         <v>44</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -2922,13 +3147,13 @@
         <v>45</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -2939,13 +3164,13 @@
         <v>46</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -2956,13 +3181,13 @@
         <v>47</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -2973,13 +3198,13 @@
         <v>48</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -2990,13 +3215,13 @@
         <v>49</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3007,13 +3232,13 @@
         <v>50</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3024,13 +3249,13 @@
         <v>51</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3041,13 +3266,13 @@
         <v>52</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3058,13 +3283,13 @@
         <v>53</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3075,13 +3300,13 @@
         <v>54</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3092,13 +3317,13 @@
         <v>55</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3109,13 +3334,13 @@
         <v>56</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3126,13 +3351,13 @@
         <v>57</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3143,13 +3368,13 @@
         <v>58</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>264</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3160,13 +3385,13 @@
         <v>59</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3177,13 +3402,13 @@
         <v>60</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3194,13 +3419,13 @@
         <v>61</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>264</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3211,13 +3436,13 @@
         <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3228,13 +3453,13 @@
         <v>63</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3245,13 +3470,13 @@
         <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3262,13 +3487,13 @@
         <v>65</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3279,13 +3504,13 @@
         <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3296,13 +3521,13 @@
         <v>67</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3313,13 +3538,13 @@
         <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3330,13 +3555,13 @@
         <v>69</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3347,13 +3572,13 @@
         <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3364,13 +3589,13 @@
         <v>71</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3381,13 +3606,13 @@
         <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3398,13 +3623,13 @@
         <v>73</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3415,13 +3640,13 @@
         <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3432,13 +3657,13 @@
         <v>75</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3449,13 +3674,13 @@
         <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>275</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3466,13 +3691,13 @@
         <v>77</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3483,13 +3708,13 @@
         <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>277</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3500,13 +3725,13 @@
         <v>79</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3517,13 +3742,13 @@
         <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3534,13 +3759,13 @@
         <v>81</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3551,13 +3776,13 @@
         <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3565,16 +3790,16 @@
         <v>12</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3582,16 +3807,16 @@
         <v>12</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>283</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3599,16 +3824,16 @@
         <v>12</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3616,16 +3841,16 @@
         <v>12</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3633,16 +3858,16 @@
         <v>12</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3650,16 +3875,16 @@
         <v>12</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3667,16 +3892,16 @@
         <v>13</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3684,16 +3909,16 @@
         <v>13</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3701,16 +3926,16 @@
         <v>13</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>275</v>
+        <v>320</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3718,16 +3943,16 @@
         <v>13</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3735,16 +3960,16 @@
         <v>13</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3752,16 +3977,16 @@
         <v>13</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3769,16 +3994,16 @@
         <v>13</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3786,16 +4011,16 @@
         <v>13</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3803,16 +4028,16 @@
         <v>13</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3820,16 +4045,16 @@
         <v>13</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3837,16 +4062,16 @@
         <v>14</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
     </row>
     <row r="86" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3854,16 +4079,16 @@
         <v>14</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3871,16 +4096,16 @@
         <v>14</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3888,16 +4113,16 @@
         <v>14</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3905,16 +4130,16 @@
         <v>14</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3922,16 +4147,16 @@
         <v>14</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
     </row>
     <row r="91" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3939,16 +4164,16 @@
         <v>14</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3956,16 +4181,16 @@
         <v>14</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>284</v>
+        <v>336</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3973,16 +4198,16 @@
         <v>14</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3990,135 +4215,135 @@
         <v>14</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -4126,16 +4351,16 @@
         <v>15</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -4143,16 +4368,16 @@
         <v>15</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -4160,197 +4385,554 @@
         <v>15</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
     </row>
     <row r="107" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
     </row>
     <row r="108" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>279</v>
+        <v>335</v>
       </c>
     </row>
     <row r="109" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>284</v>
+        <v>336</v>
       </c>
     </row>
     <row r="110" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
     </row>
     <row r="111" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
     </row>
     <row r="112" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
     </row>
     <row r="113" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A113" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A114" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A115" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A116" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A117" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A118" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A119" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E113" s="4" t="s">
+      <c r="B119" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A120" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A121" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A122" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A123" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A124" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A125" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A126" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A127" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A128" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A129" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A130" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A131" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A132" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A133" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A134" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" t="s">
+      <c r="E134" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
         <v>16</v>
       </c>
-      <c r="B114" t="s">
-        <v>125</v>
-      </c>
-      <c r="C114" t="s">
-        <v>127</v>
-      </c>
-      <c r="D114" t="s">
-        <v>240</v>
-      </c>
-      <c r="E114" t="s">
-        <v>284</v>
+      <c r="B135" t="s">
+        <v>149</v>
+      </c>
+      <c r="C135" t="s">
+        <v>150</v>
+      </c>
+      <c r="D135" t="s">
+        <v>285</v>
+      </c>
+      <c r="E135" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E113"/>
+  <autoFilter ref="A1:E134"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E199"/>
+  <dimension ref="A1:E214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4402,3355 +4984,3610 @@
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>606</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>607</v>
+        <v>679</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>412</v>
+        <v>469</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>608</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>609</v>
+        <v>681</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>610</v>
+        <v>682</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>611</v>
+        <v>683</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>297</v>
+        <v>346</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>416</v>
+        <v>473</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>612</v>
+        <v>684</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>417</v>
+        <v>474</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>613</v>
+        <v>685</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>613</v>
+        <v>685</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>613</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>420</v>
+        <v>477</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>613</v>
+        <v>685</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>421</v>
+        <v>478</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>614</v>
+        <v>686</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>422</v>
+        <v>479</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>615</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>245</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>423</v>
+        <v>480</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>616</v>
+        <v>688</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>424</v>
+        <v>481</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>617</v>
+        <v>689</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>425</v>
+        <v>482</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>618</v>
+        <v>690</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>306</v>
+        <v>355</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>426</v>
+        <v>483</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>619</v>
+        <v>691</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>427</v>
+        <v>484</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>620</v>
+        <v>692</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>428</v>
+        <v>485</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>429</v>
+        <v>486</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>622</v>
+        <v>694</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>430</v>
+        <v>487</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>431</v>
+        <v>488</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>624</v>
+        <v>696</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>361</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>625</v>
+        <v>697</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>27</v>
+        <v>362</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>626</v>
+        <v>698</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>363</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>434</v>
+        <v>491</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>627</v>
+        <v>699</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>628</v>
+        <v>700</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>629</v>
+        <v>701</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>630</v>
+        <v>702</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>631</v>
+        <v>703</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>312</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>313</v>
+        <v>32</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>314</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>316</v>
+        <v>365</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>318</v>
+        <v>367</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>34</v>
+        <v>368</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>35</v>
+        <v>369</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>36</v>
+        <v>370</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>319</v>
+        <v>35</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>320</v>
+        <v>36</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>321</v>
+        <v>37</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>632</v>
+        <v>705</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>324</v>
+        <v>373</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>632</v>
+        <v>706</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>632</v>
+        <v>707</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>616</v>
+        <v>707</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>459</v>
+        <v>516</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>617</v>
+        <v>707</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>460</v>
+        <v>517</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>618</v>
+        <v>707</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>619</v>
+        <v>688</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>462</v>
+        <v>519</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>620</v>
+        <v>689</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>621</v>
+        <v>690</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>622</v>
+        <v>691</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>623</v>
+        <v>692</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>466</v>
+        <v>523</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>624</v>
+        <v>693</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>38</v>
+        <v>384</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>625</v>
+        <v>694</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>39</v>
+        <v>385</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>626</v>
+        <v>695</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>40</v>
+        <v>386</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>627</v>
+        <v>696</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>41</v>
+        <v>387</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>628</v>
+        <v>697</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>335</v>
+        <v>388</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>629</v>
+        <v>698</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>336</v>
+        <v>389</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>630</v>
+        <v>699</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>337</v>
+        <v>38</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>631</v>
+        <v>700</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>338</v>
+        <v>39</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>629</v>
+        <v>701</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>339</v>
+        <v>40</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>630</v>
+        <v>702</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>340</v>
+        <v>41</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>631</v>
+        <v>703</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>42</v>
+        <v>395</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>43</v>
+        <v>396</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>44</v>
+        <v>397</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>45</v>
+        <v>398</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>46</v>
+        <v>399</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>486</v>
+        <v>543</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>47</v>
+        <v>400</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
     </row>
     <row r="82" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>632</v>
+        <v>705</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>632</v>
+        <v>706</v>
       </c>
     </row>
     <row r="86" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>346</v>
+        <v>47</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>616</v>
+        <v>705</v>
       </c>
     </row>
     <row r="88" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>347</v>
+        <v>48</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>617</v>
+        <v>706</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>348</v>
+        <v>49</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>618</v>
+        <v>707</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>349</v>
+        <v>50</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>619</v>
+        <v>707</v>
       </c>
     </row>
     <row r="91" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>620</v>
+        <v>707</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>351</v>
+        <v>52</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>498</v>
+        <v>555</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>621</v>
+        <v>707</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>622</v>
+        <v>688</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>500</v>
+        <v>557</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>623</v>
+        <v>689</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>624</v>
+        <v>690</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>56</v>
+        <v>404</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>625</v>
+        <v>691</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>57</v>
+        <v>405</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>626</v>
+        <v>692</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>58</v>
+        <v>406</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>504</v>
+        <v>561</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>627</v>
+        <v>693</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>59</v>
+        <v>407</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>628</v>
+        <v>694</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>60</v>
+        <v>408</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>629</v>
+        <v>695</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>61</v>
+        <v>409</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>630</v>
+        <v>696</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>62</v>
+        <v>410</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>631</v>
+        <v>697</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>63</v>
+        <v>411</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>629</v>
+        <v>698</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>64</v>
+        <v>412</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>630</v>
+        <v>699</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>631</v>
+        <v>700</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>629</v>
+        <v>701</v>
       </c>
     </row>
     <row r="107" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>630</v>
+        <v>702</v>
       </c>
     </row>
     <row r="108" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>631</v>
+        <v>703</v>
       </c>
     </row>
     <row r="109" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
     </row>
     <row r="110" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>355</v>
+        <v>61</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>516</v>
+        <v>573</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
     </row>
     <row r="111" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
     </row>
     <row r="112" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
     </row>
     <row r="113" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
     </row>
     <row r="114" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
     </row>
     <row r="115" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>356</v>
+        <v>66</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>521</v>
+        <v>578</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>357</v>
+        <v>67</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>522</v>
+        <v>579</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
     </row>
     <row r="117" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>358</v>
+        <v>68</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>523</v>
+        <v>580</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
     </row>
     <row r="118" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>359</v>
+        <v>69</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>524</v>
+        <v>581</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
     </row>
     <row r="119" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>632</v>
+        <v>705</v>
       </c>
     </row>
     <row r="120" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>361</v>
+        <v>70</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>632</v>
+        <v>706</v>
       </c>
     </row>
     <row r="121" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>362</v>
+        <v>71</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>527</v>
+        <v>584</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
     </row>
     <row r="122" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>528</v>
+        <v>585</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>616</v>
+        <v>705</v>
       </c>
     </row>
     <row r="123" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>529</v>
+        <v>586</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>617</v>
+        <v>706</v>
       </c>
     </row>
     <row r="124" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>76</v>
+        <v>414</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>530</v>
+        <v>587</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>633</v>
+        <v>704</v>
       </c>
     </row>
     <row r="125" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>531</v>
+        <v>588</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>634</v>
+        <v>705</v>
       </c>
     </row>
     <row r="126" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>78</v>
+        <v>416</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>532</v>
+        <v>589</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>622</v>
+        <v>706</v>
       </c>
     </row>
     <row r="127" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>533</v>
+        <v>590</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>623</v>
+        <v>707</v>
       </c>
     </row>
     <row r="128" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>534</v>
+        <v>591</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>624</v>
+        <v>707</v>
       </c>
     </row>
     <row r="129" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>535</v>
+        <v>592</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>635</v>
+        <v>707</v>
       </c>
     </row>
     <row r="130" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>82</v>
+        <v>420</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>536</v>
+        <v>593</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>636</v>
+        <v>707</v>
       </c>
     </row>
     <row r="131" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>537</v>
+        <v>594</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>637</v>
+        <v>688</v>
       </c>
     </row>
     <row r="132" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>538</v>
+        <v>595</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>638</v>
+        <v>689</v>
       </c>
     </row>
     <row r="133" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>363</v>
+        <v>76</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>539</v>
+        <v>596</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>639</v>
+        <v>708</v>
       </c>
     </row>
     <row r="134" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>540</v>
+        <v>597</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>640</v>
+        <v>709</v>
       </c>
     </row>
     <row r="135" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>365</v>
+        <v>421</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>541</v>
+        <v>598</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>641</v>
+        <v>694</v>
       </c>
     </row>
     <row r="136" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>366</v>
+        <v>422</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>542</v>
+        <v>599</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>642</v>
+        <v>695</v>
       </c>
     </row>
     <row r="137" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>367</v>
+        <v>423</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>543</v>
+        <v>600</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>643</v>
+        <v>696</v>
       </c>
     </row>
     <row r="138" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>368</v>
+        <v>78</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>544</v>
+        <v>601</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>644</v>
+        <v>710</v>
       </c>
     </row>
     <row r="139" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>545</v>
+        <v>602</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>645</v>
+        <v>711</v>
       </c>
     </row>
     <row r="140" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>546</v>
+        <v>603</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>646</v>
+        <v>712</v>
       </c>
     </row>
     <row r="141" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A141" s="4" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>371</v>
+        <v>81</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>547</v>
+        <v>604</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>647</v>
+        <v>713</v>
       </c>
     </row>
     <row r="142" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>548</v>
+        <v>605</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>648</v>
+        <v>714</v>
       </c>
     </row>
     <row r="143" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A143" s="4" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>549</v>
+        <v>606</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>649</v>
+        <v>715</v>
       </c>
     </row>
     <row r="144" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>550</v>
+        <v>607</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>650</v>
+        <v>716</v>
       </c>
     </row>
     <row r="145" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A145" s="4" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>551</v>
+        <v>608</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>651</v>
+        <v>717</v>
       </c>
     </row>
     <row r="146" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>552</v>
+        <v>609</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>652</v>
+        <v>718</v>
       </c>
     </row>
     <row r="147" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A147" s="4" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>553</v>
+        <v>610</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>653</v>
+        <v>719</v>
       </c>
     </row>
     <row r="148" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>378</v>
+        <v>83</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>554</v>
+        <v>611</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>654</v>
+        <v>720</v>
       </c>
     </row>
     <row r="149" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A149" s="4" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>379</v>
+        <v>84</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>555</v>
+        <v>612</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>655</v>
+        <v>721</v>
       </c>
     </row>
     <row r="150" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>83</v>
+        <v>429</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>556</v>
+        <v>613</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>629</v>
+        <v>722</v>
       </c>
     </row>
     <row r="151" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A151" s="4" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>84</v>
+        <v>430</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>557</v>
+        <v>614</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>630</v>
+        <v>723</v>
       </c>
     </row>
     <row r="152" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>85</v>
+        <v>431</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>558</v>
+        <v>615</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>631</v>
+        <v>724</v>
       </c>
     </row>
     <row r="153" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A153" s="4" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>86</v>
+        <v>432</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>559</v>
+        <v>616</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>629</v>
+        <v>725</v>
       </c>
     </row>
     <row r="154" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>560</v>
+        <v>617</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>630</v>
+        <v>726</v>
       </c>
     </row>
     <row r="155" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A155" s="4" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>561</v>
+        <v>618</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>631</v>
+        <v>727</v>
       </c>
     </row>
     <row r="156" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>87</v>
+        <v>435</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>562</v>
+        <v>619</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>656</v>
+        <v>728</v>
       </c>
     </row>
     <row r="157" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A157" s="4" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>88</v>
+        <v>436</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>563</v>
+        <v>620</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>657</v>
+        <v>729</v>
       </c>
     </row>
     <row r="158" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>89</v>
+        <v>437</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>564</v>
+        <v>621</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>658</v>
+        <v>730</v>
       </c>
     </row>
     <row r="159" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A159" s="4" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>90</v>
+        <v>438</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>565</v>
+        <v>622</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>659</v>
+        <v>697</v>
       </c>
     </row>
     <row r="160" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>92</v>
+        <v>439</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>566</v>
+        <v>623</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>629</v>
+        <v>698</v>
       </c>
     </row>
     <row r="161" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A161" s="4" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>93</v>
+        <v>440</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>567</v>
+        <v>624</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>630</v>
+        <v>699</v>
       </c>
     </row>
     <row r="162" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>382</v>
+        <v>85</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>568</v>
+        <v>625</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>631</v>
+        <v>704</v>
       </c>
     </row>
     <row r="163" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A163" s="4" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>383</v>
+        <v>86</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>569</v>
+        <v>626</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>629</v>
+        <v>705</v>
       </c>
     </row>
     <row r="164" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>384</v>
+        <v>87</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>570</v>
+        <v>627</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>630</v>
+        <v>706</v>
       </c>
     </row>
     <row r="165" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A165" s="4" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>385</v>
+        <v>88</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>571</v>
+        <v>628</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>631</v>
+        <v>704</v>
       </c>
     </row>
     <row r="166" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>96</v>
+        <v>441</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>572</v>
+        <v>629</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>616</v>
+        <v>705</v>
       </c>
     </row>
     <row r="167" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A167" s="4" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>97</v>
+        <v>442</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>573</v>
+        <v>630</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>617</v>
+        <v>706</v>
       </c>
     </row>
     <row r="168" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>574</v>
+        <v>631</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>633</v>
+        <v>731</v>
       </c>
     </row>
     <row r="169" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A169" s="4" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>575</v>
+        <v>632</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>634</v>
+        <v>732</v>
       </c>
     </row>
     <row r="170" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>386</v>
+        <v>91</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>576</v>
+        <v>633</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>622</v>
+        <v>733</v>
       </c>
     </row>
     <row r="171" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A171" s="4" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>387</v>
+        <v>92</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>577</v>
+        <v>634</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>623</v>
+        <v>734</v>
       </c>
     </row>
     <row r="172" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>388</v>
+        <v>94</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>578</v>
+        <v>635</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>624</v>
+        <v>704</v>
       </c>
     </row>
     <row r="173" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A173" s="4" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>389</v>
+        <v>95</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>579</v>
+        <v>636</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>636</v>
+        <v>705</v>
       </c>
     </row>
     <row r="174" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>580</v>
+        <v>637</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>637</v>
+        <v>706</v>
       </c>
     </row>
     <row r="175" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A175" s="4" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>581</v>
+        <v>638</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>660</v>
+        <v>704</v>
       </c>
     </row>
     <row r="176" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>582</v>
+        <v>639</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>638</v>
+        <v>705</v>
       </c>
     </row>
     <row r="177" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A177" s="4" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>583</v>
+        <v>640</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>639</v>
+        <v>706</v>
       </c>
     </row>
     <row r="178" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>394</v>
+        <v>99</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>584</v>
+        <v>641</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>640</v>
+        <v>688</v>
       </c>
     </row>
     <row r="179" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A179" s="4" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>395</v>
+        <v>100</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>585</v>
+        <v>642</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>641</v>
+        <v>689</v>
       </c>
     </row>
     <row r="180" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>396</v>
+        <v>101</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>586</v>
+        <v>643</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>642</v>
+        <v>708</v>
       </c>
     </row>
     <row r="181" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A181" s="4" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>397</v>
+        <v>102</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>587</v>
+        <v>644</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>643</v>
+        <v>709</v>
       </c>
     </row>
     <row r="182" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>398</v>
+        <v>103</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>588</v>
+        <v>645</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>644</v>
+        <v>694</v>
       </c>
     </row>
     <row r="183" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A183" s="4" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>399</v>
+        <v>104</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>589</v>
+        <v>646</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>645</v>
+        <v>695</v>
       </c>
     </row>
     <row r="184" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>400</v>
+        <v>105</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>590</v>
+        <v>647</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>646</v>
+        <v>696</v>
       </c>
     </row>
     <row r="185" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A185" s="4" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>401</v>
+        <v>106</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>591</v>
+        <v>648</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>647</v>
+        <v>711</v>
       </c>
     </row>
     <row r="186" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>402</v>
+        <v>113</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>592</v>
+        <v>649</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>648</v>
+        <v>712</v>
       </c>
     </row>
     <row r="187" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A187" s="4" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>403</v>
+        <v>114</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>593</v>
+        <v>650</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>649</v>
+        <v>735</v>
       </c>
     </row>
     <row r="188" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>404</v>
+        <v>115</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>594</v>
+        <v>651</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>650</v>
+        <v>713</v>
       </c>
     </row>
     <row r="189" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A189" s="4" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>595</v>
+        <v>652</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>651</v>
+        <v>714</v>
       </c>
     </row>
     <row r="190" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>596</v>
+        <v>653</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>652</v>
+        <v>715</v>
       </c>
     </row>
     <row r="191" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A191" s="4" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>597</v>
+        <v>654</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>653</v>
+        <v>716</v>
       </c>
     </row>
     <row r="192" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>598</v>
+        <v>655</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>654</v>
+        <v>717</v>
       </c>
     </row>
     <row r="193" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A193" s="4" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>599</v>
+        <v>656</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>655</v>
+        <v>718</v>
       </c>
     </row>
     <row r="194" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>100</v>
+        <v>452</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>600</v>
+        <v>657</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>629</v>
+        <v>719</v>
       </c>
     </row>
     <row r="195" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A195" s="4" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>101</v>
+        <v>453</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>601</v>
+        <v>658</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>630</v>
+        <v>720</v>
       </c>
     </row>
     <row r="196" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>102</v>
+        <v>454</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>602</v>
+        <v>659</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="197" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A197" s="4" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>103</v>
+        <v>455</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>603</v>
+        <v>660</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>629</v>
+        <v>722</v>
       </c>
     </row>
     <row r="198" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>104</v>
+        <v>456</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>604</v>
+        <v>661</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" t="s">
-        <v>294</v>
-      </c>
-      <c r="B199" t="s">
-        <v>105</v>
-      </c>
-      <c r="C199" t="s">
-        <v>127</v>
-      </c>
-      <c r="D199" t="s">
-        <v>605</v>
-      </c>
-      <c r="E199" t="s">
-        <v>631</v>
+        <v>723</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A199" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A200" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A201" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A202" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A203" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A204" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A205" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A206" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A207" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A208" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A209" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A210" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A211" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A212" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A213" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>343</v>
+      </c>
+      <c r="B214" t="s">
+        <v>112</v>
+      </c>
+      <c r="C214" t="s">
+        <v>151</v>
+      </c>
+      <c r="D214" t="s">
+        <v>677</v>
+      </c>
+      <c r="E214" t="s">
+        <v>706</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E198"/>
+  <autoFilter ref="A1:E213"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MODBUS_MAP.xlsx
+++ b/MODBUS_MAP.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Input Registers" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Holding Registers'!$A$1:$E$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Holding Registers'!$A$1:$E$119</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Input Registers'!$A$1:$E$213</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="714">
   <si>
     <t>section</t>
   </si>
@@ -60,9 +60,15 @@
     <t>Команды - Отвалообразователь (210-239)</t>
   </si>
   <si>
+    <t>Настройка - Отвалообразователь (210-239)</t>
+  </si>
+  <si>
     <t>Команды - Конвейер (240-269)</t>
   </si>
   <si>
+    <t>Настройка - Конвейер (240-269)</t>
+  </si>
+  <si>
     <t>Команды - Бункер 1 (270-299)</t>
   </si>
   <si>
@@ -84,6 +90,15 @@
     <t>0.3</t>
   </si>
   <si>
+    <t>210.8</t>
+  </si>
+  <si>
+    <t>210.9</t>
+  </si>
+  <si>
+    <t>210.10</t>
+  </si>
+  <si>
     <t>2-3</t>
   </si>
   <si>
@@ -255,25 +270,982 @@
     <t>210.3</t>
   </si>
   <si>
+    <t>211.0</t>
+  </si>
+  <si>
+    <t>211.1</t>
+  </si>
+  <si>
+    <t>211.2</t>
+  </si>
+  <si>
+    <t>212.0</t>
+  </si>
+  <si>
+    <t>240.0</t>
+  </si>
+  <si>
+    <t>240.1</t>
+  </si>
+  <si>
+    <t>240.2</t>
+  </si>
+  <si>
+    <t>240.3</t>
+  </si>
+  <si>
+    <t>242.0</t>
+  </si>
+  <si>
+    <t>240.8</t>
+  </si>
+  <si>
+    <t>240.9</t>
+  </si>
+  <si>
+    <t>240.10</t>
+  </si>
+  <si>
+    <t>270.0</t>
+  </si>
+  <si>
+    <t>270.1</t>
+  </si>
+  <si>
+    <t>270.2</t>
+  </si>
+  <si>
+    <t>270.3</t>
+  </si>
+  <si>
+    <t>270.4</t>
+  </si>
+  <si>
+    <t>270.5</t>
+  </si>
+  <si>
+    <t>270.6</t>
+  </si>
+  <si>
+    <t>270.7</t>
+  </si>
+  <si>
+    <t>278-279</t>
+  </si>
+  <si>
+    <t>282-283</t>
+  </si>
+  <si>
+    <t>270.8</t>
+  </si>
+  <si>
+    <t>270.9</t>
+  </si>
+  <si>
+    <t>270.10</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>300.1</t>
+  </si>
+  <si>
+    <t>300.2</t>
+  </si>
+  <si>
+    <t>300.3</t>
+  </si>
+  <si>
+    <t>300.4</t>
+  </si>
+  <si>
+    <t>300.5</t>
+  </si>
+  <si>
+    <t>300.6</t>
+  </si>
+  <si>
+    <t>300.7</t>
+  </si>
+  <si>
+    <t>308-309</t>
+  </si>
+  <si>
+    <t>312-313</t>
+  </si>
+  <si>
+    <t>300.8</t>
+  </si>
+  <si>
+    <t>300.9</t>
+  </si>
+  <si>
+    <t>300.10</t>
+  </si>
+  <si>
+    <t>330.0</t>
+  </si>
+  <si>
+    <t>330.1</t>
+  </si>
+  <si>
+    <t>330.2</t>
+  </si>
+  <si>
+    <t>330.3</t>
+  </si>
+  <si>
+    <t>330.4</t>
+  </si>
+  <si>
+    <t>330.5</t>
+  </si>
+  <si>
+    <t>330.6</t>
+  </si>
+  <si>
+    <t>330.7</t>
+  </si>
+  <si>
+    <t>338-339</t>
+  </si>
+  <si>
+    <t>342-343</t>
+  </si>
+  <si>
+    <t>330.8</t>
+  </si>
+  <si>
+    <t>330.9</t>
+  </si>
+  <si>
+    <t>330.10</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>stCommands.cmdStartCommon.ixSignal</t>
+  </si>
+  <si>
+    <t>stCommands.cmdStopCommon.ixSignal</t>
+  </si>
+  <si>
+    <t>stCommands.cmdEmergencyStopCommon.ixSignal</t>
+  </si>
+  <si>
+    <t>stCommands.cmdResetAll.ixSignal</t>
+  </si>
+  <si>
+    <t>stDumper.cmdSetModeRepair</t>
+  </si>
+  <si>
+    <t>stDumper.cmdSetModeManual</t>
+  </si>
+  <si>
+    <t>stDumper.cmdSetModeAuto</t>
+  </si>
+  <si>
+    <t>ICUR_PRECENT</t>
+  </si>
+  <si>
+    <t>rElectricityMeter</t>
+  </si>
+  <si>
+    <t>EFFICIENCY_LIMIT_RATE</t>
+  </si>
+  <si>
+    <t>ANNUNCIATOR_LIGHT_HZ</t>
+  </si>
+  <si>
+    <t>VFD_SMOOTH_SET_FREQUENCY</t>
+  </si>
+  <si>
+    <t>VFD_FREQUENCY_MAX</t>
+  </si>
+  <si>
+    <t>VFD_FREQUENCY_STEP</t>
+  </si>
+  <si>
+    <t>VFD_FREQUENCY_INACCURANCY</t>
+  </si>
+  <si>
+    <t>VFD_FREQUENCY_SYNC_TOLERANCE</t>
+  </si>
+  <si>
+    <t>MOTOR_FREQUENCY_CONVEYOR</t>
+  </si>
+  <si>
+    <t>MOTOR_FREQUENCY_DUMPER_CONVEYOR</t>
+  </si>
+  <si>
+    <t>MOTOR_FREQUENCY_DUMPER_ROTATION</t>
+  </si>
+  <si>
+    <t>CONVEYOR_DEAFULT_SPEED</t>
+  </si>
+  <si>
+    <t>BUNKER_WORK_PRECENT_1</t>
+  </si>
+  <si>
+    <t>BUNKER_WORK_PRECENT_2</t>
+  </si>
+  <si>
+    <t>BUNKER_WORK_PRECENT_3</t>
+  </si>
+  <si>
+    <t>BUNKER_MINIMAL_WEIGHT</t>
+  </si>
+  <si>
+    <t>MOTOR_VIBFEEDER_TEMP_POINTS.LL_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_VIBFEEDER_TEMP_POINTS.L_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_VIBFEEDER_TEMP_POINTS.H_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_VIBFEEDER_TEMP_POINTS.HH_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_VIBFEEDER_CURRENT_POINTS.LL_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_VIBFEEDER_CURRENT_POINTS.L_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_VIBFEEDER_CURRENT_POINTS.H_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_VIBFEEDER_CURRENT_POINTS.HH_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_VIBRATOR_CURRENT_POINTS.LL_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_VIBRATOR_CURRENT_POINTS.L_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_VIBRATOR_CURRENT_POINTS.H_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_VIBRATOR_CURRENT_POINTS.HH_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_CONVEYOR_CURRENT_POINTS.LL_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_CONVEYOR_CURRENT_POINTS.L_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_CONVEYOR_CURRENT_POINTS.H_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_CONVEYOR_CURRENT_POINTS.HH_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_ROTATION_CURRENT_POINTS.LL_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_ROTATION_CURRENT_POINTS.L_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_ROTATION_CURRENT_POINTS.H_Value</t>
+  </si>
+  <si>
+    <t>MOTOR_ROTATION_CURRENT_POINTS.HH_Value</t>
+  </si>
+  <si>
+    <t>VIBRATOR_SETTINGS.TIME_ACTIVE</t>
+  </si>
+  <si>
+    <t>VIBRATOR_SETTINGS.TIME_PAUSE_VIBRATOR</t>
+  </si>
+  <si>
+    <t>VIBRATOR_SETTINGS.TIME_PAUSE_FB</t>
+  </si>
+  <si>
+    <t>PNEUMO_SETTINGS.TIME_ACTIVE</t>
+  </si>
+  <si>
+    <t>PNEUMO_SETTINGS.TIME_PAUSE_VIBRATOR</t>
+  </si>
+  <si>
+    <t>PNEUMO_SETTINGS.TIME_PAUSE_FB</t>
+  </si>
+  <si>
+    <t>TIME_WAITING_FEEDBACK</t>
+  </si>
+  <si>
+    <t>PNEUMATIC_COLLAPSE_TIME</t>
+  </si>
+  <si>
+    <t>DUMPER_CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_FIRST_SIGNAL</t>
+  </si>
+  <si>
+    <t>DUMPER_CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_FIRST_SIGNAL_PAUSE</t>
+  </si>
+  <si>
+    <t>DUMPER_CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_SECOND_SIGNAL</t>
+  </si>
+  <si>
+    <t>DUMPER_CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_SECOND_SIGNAL_PAUSE</t>
+  </si>
+  <si>
+    <t>CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_FIRST_SIGNAL</t>
+  </si>
+  <si>
+    <t>CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_FIRST_SIGNAL_PAUSE</t>
+  </si>
+  <si>
+    <t>CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_SECOND_SIGNAL</t>
+  </si>
+  <si>
+    <t>CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_SECOND_SIGNAL_PAUSE</t>
+  </si>
+  <si>
+    <t>stDumper.cmdStartConveyor</t>
+  </si>
+  <si>
+    <t>stDumper.cmdStopConveyor</t>
+  </si>
+  <si>
+    <t>stDumper.cmdEmergencyStop</t>
+  </si>
+  <si>
+    <t>stDumper.cmdReset</t>
+  </si>
+  <si>
+    <t>stDumper.cmdTurnLeft</t>
+  </si>
+  <si>
+    <t>stDumper.cmdTurnRight</t>
+  </si>
+  <si>
+    <t>stDumper.cmdStopRotation</t>
+  </si>
+  <si>
+    <t>DUMPER_CONVEYOR_PRESTART_ALARM_SETTINGS.OPTION_ENABLE</t>
+  </si>
+  <si>
+    <t>stConveyor.cmdStartConveyor</t>
+  </si>
+  <si>
+    <t>stConveyor.cmdStopConveyor</t>
+  </si>
+  <si>
+    <t>stConveyor.cmdEmergencyStop</t>
+  </si>
+  <si>
+    <t>stConveyor.cmdReset</t>
+  </si>
+  <si>
+    <t>CONVEYOR_PRESTART_ALARM_SETTINGS.OPTION_ENABLE</t>
+  </si>
+  <si>
+    <t>stConveyor.cmdSetModeRepair</t>
+  </si>
+  <si>
+    <t>stConveyor.cmdSetModeManual</t>
+  </si>
+  <si>
+    <t>stConveyor.cmdSetModeAuto</t>
+  </si>
+  <si>
+    <t>stBunker[1].cmdStartFeeder</t>
+  </si>
+  <si>
+    <t>stBunker[1].cmdStopFeeder</t>
+  </si>
+  <si>
+    <t>stBunker[1].cmdEmergencyStopFeeder</t>
+  </si>
+  <si>
+    <t>stBunker[1].cmdReset</t>
+  </si>
+  <si>
+    <t>stBunker[1].cmdAddVib1</t>
+  </si>
+  <si>
+    <t>stBunker[1].cmdAddVib2</t>
+  </si>
+  <si>
+    <t>stBunker[1].cmdAddVib3</t>
+  </si>
+  <si>
+    <t>stBunker[1].cmdAddVib4</t>
+  </si>
+  <si>
+    <t>BUNKER_1_FREQ_VIBRATOR</t>
+  </si>
+  <si>
+    <t>BUNKER_1_FREQ_VIBFEEDER</t>
+  </si>
+  <si>
+    <t>stBunker[1].cmdSetModeRepair</t>
+  </si>
+  <si>
+    <t>stBunker[1].cmdSetModeManual</t>
+  </si>
+  <si>
+    <t>stBunker[1].cmdSetModeAuto</t>
+  </si>
+  <si>
+    <t>stBunker[2].cmdStartFeeder</t>
+  </si>
+  <si>
+    <t>stBunker[2].cmdStopFeeder</t>
+  </si>
+  <si>
+    <t>stBunker[2].cmdEmergencyStopFeeder</t>
+  </si>
+  <si>
+    <t>stBunker[2].cmdReset</t>
+  </si>
+  <si>
+    <t>stBunker[2].cmdAddVib1</t>
+  </si>
+  <si>
+    <t>stBunker[2].cmdAddVib2</t>
+  </si>
+  <si>
+    <t>stBunker[2].cmdAddVib3</t>
+  </si>
+  <si>
+    <t>stBunker[2].cmdAddVib4</t>
+  </si>
+  <si>
+    <t>BUNKER_2_FREQ_VIBRATOR</t>
+  </si>
+  <si>
+    <t>BUNKER_2_FREQ_VIBFEEDER</t>
+  </si>
+  <si>
+    <t>stBunker[2].cmdSetModeRepair</t>
+  </si>
+  <si>
+    <t>stBunker[2].cmdSetModeManual</t>
+  </si>
+  <si>
+    <t>stBunker[2].cmdSetModeAuto</t>
+  </si>
+  <si>
+    <t>stBunker[3].cmdStartFeeder</t>
+  </si>
+  <si>
+    <t>stBunker[3].cmdStopFeeder</t>
+  </si>
+  <si>
+    <t>stBunker[3].cmdEmergencyStopFeeder</t>
+  </si>
+  <si>
+    <t>stBunker[3].cmdReset</t>
+  </si>
+  <si>
+    <t>stBunker[3].cmdAddVib1</t>
+  </si>
+  <si>
+    <t>stBunker[3].cmdAddVib2</t>
+  </si>
+  <si>
+    <t>stBunker[3].cmdAddVib3</t>
+  </si>
+  <si>
+    <t>stBunker[3].cmdAddVib4</t>
+  </si>
+  <si>
+    <t>BUNKER_3_FREQ_VIBRATOR</t>
+  </si>
+  <si>
+    <t>BUNKER_3_FREQ_VIBFEEDER</t>
+  </si>
+  <si>
+    <t>stBunker[3].cmdSetModeRepair</t>
+  </si>
+  <si>
+    <t>stBunker[3].cmdSetModeManual</t>
+  </si>
+  <si>
+    <t>stBunker[3].cmdSetModeAuto</t>
+  </si>
+  <si>
+    <t>Команда общего пуска</t>
+  </si>
+  <si>
+    <t>Команда общего останова</t>
+  </si>
+  <si>
+    <t>Команда общей аварийной остановки</t>
+  </si>
+  <si>
+    <t>Сброс всех ошибок</t>
+  </si>
+  <si>
+    <t>Установить режим Ремонт</t>
+  </si>
+  <si>
+    <t>Установить режим Ручной</t>
+  </si>
+  <si>
+    <t>Установить режим Авто</t>
+  </si>
+  <si>
+    <t>Коэффициент использования установленной мощности (в процентах)</t>
+  </si>
+  <si>
+    <t>Раход электроэнергии</t>
+  </si>
+  <si>
+    <t>Коэффицент ограничения производительности (0-1)</t>
+  </si>
+  <si>
+    <t>Световая индикация Гц</t>
+  </si>
+  <si>
+    <t>Опция плавного задания частоты</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Допустимая разница частот для синхронизации моторов</t>
+  </si>
+  <si>
+    <t>Частота мотора конвейера</t>
+  </si>
+  <si>
+    <t>Частота мотора конвейера отвалообразователя</t>
+  </si>
+  <si>
+    <t>Частота мотора поворота отвалообразователя</t>
+  </si>
+  <si>
+    <t>Скорость конвейера</t>
+  </si>
+  <si>
+    <t>Уставка пропорции шихтования для бункера 1</t>
+  </si>
+  <si>
+    <t>Уставка пропорции шихтования для бункера 2</t>
+  </si>
+  <si>
+    <t>Уставка пропорции шихтования для бункера 3</t>
+  </si>
+  <si>
+    <t>Уставка минимального веса бункера. Результат &lt;= считывается алгоритмом как пустой бункер.</t>
+  </si>
+  <si>
+    <t>Уставка Low-Low</t>
+  </si>
+  <si>
+    <t>Уставка Low</t>
+  </si>
+  <si>
+    <t>Уставка High</t>
+  </si>
+  <si>
+    <t>Уставка High-High</t>
+  </si>
+  <si>
+    <t>Время активной работы вибратора</t>
+  </si>
+  <si>
+    <t>Время паузы вибратора между циклами</t>
+  </si>
+  <si>
+    <t>Время паузы ФБ между подходами</t>
+  </si>
+  <si>
+    <t>Таймер ожидания пропавшего сигнала обратной связи работы механизма</t>
+  </si>
+  <si>
+    <t>Уставка времени таймера пневмообрушения</t>
+  </si>
+  <si>
+    <t>Время звучания первого сигнала</t>
+  </si>
+  <si>
+    <t>Пауза после первого сигнала</t>
+  </si>
+  <si>
+    <t>Время звучания второго сигнала</t>
+  </si>
+  <si>
+    <t>Пауза после втотрого сигнала</t>
+  </si>
+  <si>
+    <t>Команда пуска конвейера</t>
+  </si>
+  <si>
+    <t>Команда останова конвейера</t>
+  </si>
+  <si>
+    <t>Команда аварийной остановки</t>
+  </si>
+  <si>
+    <t>Сброс ошибок</t>
+  </si>
+  <si>
+    <t>Команда поворота влево</t>
+  </si>
+  <si>
+    <t>Команда поворота вправо</t>
+  </si>
+  <si>
+    <t>Команда остановка поворота</t>
+  </si>
+  <si>
+    <t>Опция на включение ППЗ в алгоритм</t>
+  </si>
+  <si>
+    <t>Команда "Пуск питателя"</t>
+  </si>
+  <si>
+    <t>Команда "Стоп питателя"</t>
+  </si>
+  <si>
+    <t>Команда "Аварийная остановка"</t>
+  </si>
+  <si>
+    <t>Добавление мотора вибратора 1 в работу</t>
+  </si>
+  <si>
+    <t>Добавление мотора вибратора 2 в работу</t>
+  </si>
+  <si>
+    <t>Добавление мотора вибратора 3 в работу</t>
+  </si>
+  <si>
+    <t>Добавление мотора вибратора 4 в работу</t>
+  </si>
+  <si>
+    <t>Ручное задание частоты вибратора</t>
+  </si>
+  <si>
+    <t>Ручное задание частоты вибропитателя</t>
+  </si>
+  <si>
+    <t>Общие системные статусы (0-29)</t>
+  </si>
+  <si>
+    <t>Бункер 1 (30-89)</t>
+  </si>
+  <si>
+    <t>Бункер 2 (90-149)</t>
+  </si>
+  <si>
+    <t>Бункер 3 (150-209)</t>
+  </si>
+  <si>
+    <t>Отвалообразователь - Конвейер (210-239)</t>
+  </si>
+  <si>
+    <t>Отвалообразователь - Поворот (240-269)</t>
+  </si>
+  <si>
+    <t>Конвейер (270-299)</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>30.1</t>
+  </si>
+  <si>
+    <t>30.2</t>
+  </si>
+  <si>
+    <t>30.3</t>
+  </si>
+  <si>
+    <t>30.4</t>
+  </si>
+  <si>
+    <t>30.5</t>
+  </si>
+  <si>
+    <t>30.6</t>
+  </si>
+  <si>
+    <t>30.7</t>
+  </si>
+  <si>
+    <t>30.8</t>
+  </si>
+  <si>
+    <t>30.12</t>
+  </si>
+  <si>
+    <t>30.13</t>
+  </si>
+  <si>
+    <t>30.14</t>
+  </si>
+  <si>
+    <t>48-49</t>
+  </si>
+  <si>
+    <t>50-51</t>
+  </si>
+  <si>
+    <t>52-53</t>
+  </si>
+  <si>
+    <t>54-55</t>
+  </si>
+  <si>
+    <t>56-57</t>
+  </si>
+  <si>
+    <t>58-59</t>
+  </si>
+  <si>
+    <t>60-61</t>
+  </si>
+  <si>
+    <t>70-71</t>
+  </si>
+  <si>
+    <t>72-73</t>
+  </si>
+  <si>
+    <t>74-75</t>
+  </si>
+  <si>
+    <t>76-77</t>
+  </si>
+  <si>
+    <t>78-79</t>
+  </si>
+  <si>
+    <t>80-81</t>
+  </si>
+  <si>
+    <t>82-83</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>90.1</t>
+  </si>
+  <si>
+    <t>90.2</t>
+  </si>
+  <si>
+    <t>90.3</t>
+  </si>
+  <si>
+    <t>90.4</t>
+  </si>
+  <si>
+    <t>90.5</t>
+  </si>
+  <si>
+    <t>90.6</t>
+  </si>
+  <si>
+    <t>90.7</t>
+  </si>
+  <si>
+    <t>90.8</t>
+  </si>
+  <si>
+    <t>90.12</t>
+  </si>
+  <si>
+    <t>90.13</t>
+  </si>
+  <si>
+    <t>90.14</t>
+  </si>
+  <si>
+    <t>100-101</t>
+  </si>
+  <si>
+    <t>102-103</t>
+  </si>
+  <si>
+    <t>104-105</t>
+  </si>
+  <si>
+    <t>106-107</t>
+  </si>
+  <si>
+    <t>108-109</t>
+  </si>
+  <si>
+    <t>110-111</t>
+  </si>
+  <si>
+    <t>112-113</t>
+  </si>
+  <si>
+    <t>114-115</t>
+  </si>
+  <si>
+    <t>116-117</t>
+  </si>
+  <si>
+    <t>118-119</t>
+  </si>
+  <si>
+    <t>120-121</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>150.1</t>
+  </si>
+  <si>
+    <t>150.2</t>
+  </si>
+  <si>
+    <t>150.3</t>
+  </si>
+  <si>
+    <t>150.4</t>
+  </si>
+  <si>
+    <t>150.5</t>
+  </si>
+  <si>
+    <t>150.6</t>
+  </si>
+  <si>
+    <t>150.7</t>
+  </si>
+  <si>
+    <t>150.8</t>
+  </si>
+  <si>
+    <t>150.12</t>
+  </si>
+  <si>
+    <t>150.13</t>
+  </si>
+  <si>
+    <t>150.14</t>
+  </si>
+  <si>
+    <t>180-181</t>
+  </si>
+  <si>
+    <t>190-191</t>
+  </si>
+  <si>
+    <t>192-193</t>
+  </si>
+  <si>
+    <t>194-195</t>
+  </si>
+  <si>
+    <t>196-197</t>
+  </si>
+  <si>
+    <t>198-199</t>
+  </si>
+  <si>
+    <t>200-201</t>
+  </si>
+  <si>
+    <t>202-203</t>
+  </si>
+  <si>
+    <t>210.4</t>
+  </si>
+  <si>
+    <t>210.5</t>
+  </si>
+  <si>
+    <t>210.6</t>
+  </si>
+  <si>
     <t>210.7</t>
   </si>
   <si>
-    <t>210.8</t>
-  </si>
-  <si>
-    <t>210.9</t>
-  </si>
-  <si>
-    <t>210.10</t>
-  </si>
-  <si>
-    <t>211.0</t>
-  </si>
-  <si>
-    <t>211.1</t>
-  </si>
-  <si>
-    <t>211.2</t>
+    <t>210.11</t>
+  </si>
+  <si>
+    <t>210.12</t>
+  </si>
+  <si>
+    <t>210.13</t>
+  </si>
+  <si>
+    <t>210.14</t>
+  </si>
+  <si>
+    <t>210.15</t>
+  </si>
+  <si>
+    <t>211.3</t>
+  </si>
+  <si>
+    <t>211.4</t>
+  </si>
+  <si>
+    <t>211.5</t>
+  </si>
+  <si>
+    <t>211.6</t>
+  </si>
+  <si>
+    <t>211.7</t>
+  </si>
+  <si>
+    <t>211.8</t>
+  </si>
+  <si>
+    <t>211.9</t>
+  </si>
+  <si>
+    <t>211.10</t>
+  </si>
+  <si>
+    <t>211.11</t>
+  </si>
+  <si>
+    <t>211.12</t>
+  </si>
+  <si>
+    <t>211.13</t>
+  </si>
+  <si>
+    <t>211.14</t>
   </si>
   <si>
     <t>212-213</t>
@@ -288,19 +1260,10 @@
     <t>218-219</t>
   </si>
   <si>
-    <t>240.0</t>
-  </si>
-  <si>
-    <t>240.1</t>
-  </si>
-  <si>
-    <t>240.2</t>
-  </si>
-  <si>
-    <t>240.3</t>
-  </si>
-  <si>
-    <t>240.4</t>
+    <t>220-221</t>
+  </si>
+  <si>
+    <t>222-223</t>
   </si>
   <si>
     <t>242-243</t>
@@ -309,37 +1272,76 @@
     <t>244-245</t>
   </si>
   <si>
-    <t>240.8</t>
-  </si>
-  <si>
-    <t>240.9</t>
-  </si>
-  <si>
-    <t>240.10</t>
-  </si>
-  <si>
-    <t>270.0</t>
-  </si>
-  <si>
-    <t>270.1</t>
-  </si>
-  <si>
-    <t>270.2</t>
-  </si>
-  <si>
-    <t>270.3</t>
-  </si>
-  <si>
-    <t>270.4</t>
-  </si>
-  <si>
-    <t>270.5</t>
-  </si>
-  <si>
-    <t>270.6</t>
-  </si>
-  <si>
-    <t>270.7</t>
+    <t>246-247</t>
+  </si>
+  <si>
+    <t>248-249</t>
+  </si>
+  <si>
+    <t>250-251</t>
+  </si>
+  <si>
+    <t>252-253</t>
+  </si>
+  <si>
+    <t>270.11</t>
+  </si>
+  <si>
+    <t>270.12</t>
+  </si>
+  <si>
+    <t>270.13</t>
+  </si>
+  <si>
+    <t>270.14</t>
+  </si>
+  <si>
+    <t>270.15</t>
+  </si>
+  <si>
+    <t>271.0</t>
+  </si>
+  <si>
+    <t>271.1</t>
+  </si>
+  <si>
+    <t>271.2</t>
+  </si>
+  <si>
+    <t>271.3</t>
+  </si>
+  <si>
+    <t>271.4</t>
+  </si>
+  <si>
+    <t>271.5</t>
+  </si>
+  <si>
+    <t>271.6</t>
+  </si>
+  <si>
+    <t>271.7</t>
+  </si>
+  <si>
+    <t>271.8</t>
+  </si>
+  <si>
+    <t>271.9</t>
+  </si>
+  <si>
+    <t>271.10</t>
+  </si>
+  <si>
+    <t>271.11</t>
+  </si>
+  <si>
+    <t>271.12</t>
+  </si>
+  <si>
+    <t>271.13</t>
+  </si>
+  <si>
+    <t>271.14</t>
   </si>
   <si>
     <t>272-273</t>
@@ -351,1075 +1353,7 @@
     <t>276-277</t>
   </si>
   <si>
-    <t>278-279</t>
-  </si>
-  <si>
     <t>280-281</t>
-  </si>
-  <si>
-    <t>282-283</t>
-  </si>
-  <si>
-    <t>270.8</t>
-  </si>
-  <si>
-    <t>270.9</t>
-  </si>
-  <si>
-    <t>270.10</t>
-  </si>
-  <si>
-    <t>300.0</t>
-  </si>
-  <si>
-    <t>300.1</t>
-  </si>
-  <si>
-    <t>300.2</t>
-  </si>
-  <si>
-    <t>300.3</t>
-  </si>
-  <si>
-    <t>300.4</t>
-  </si>
-  <si>
-    <t>300.5</t>
-  </si>
-  <si>
-    <t>300.6</t>
-  </si>
-  <si>
-    <t>300.7</t>
-  </si>
-  <si>
-    <t>302-303</t>
-  </si>
-  <si>
-    <t>304-305</t>
-  </si>
-  <si>
-    <t>306-307</t>
-  </si>
-  <si>
-    <t>308-309</t>
-  </si>
-  <si>
-    <t>310-311</t>
-  </si>
-  <si>
-    <t>312-313</t>
-  </si>
-  <si>
-    <t>300.8</t>
-  </si>
-  <si>
-    <t>300.9</t>
-  </si>
-  <si>
-    <t>300.10</t>
-  </si>
-  <si>
-    <t>330.0</t>
-  </si>
-  <si>
-    <t>330.1</t>
-  </si>
-  <si>
-    <t>330.2</t>
-  </si>
-  <si>
-    <t>330.3</t>
-  </si>
-  <si>
-    <t>330.4</t>
-  </si>
-  <si>
-    <t>330.5</t>
-  </si>
-  <si>
-    <t>330.6</t>
-  </si>
-  <si>
-    <t>330.7</t>
-  </si>
-  <si>
-    <t>332-333</t>
-  </si>
-  <si>
-    <t>334-335</t>
-  </si>
-  <si>
-    <t>336-337</t>
-  </si>
-  <si>
-    <t>338-339</t>
-  </si>
-  <si>
-    <t>340-341</t>
-  </si>
-  <si>
-    <t>342-343</t>
-  </si>
-  <si>
-    <t>330.8</t>
-  </si>
-  <si>
-    <t>330.9</t>
-  </si>
-  <si>
-    <t>330.10</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>REAL</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>stCommands.cmdStartCommon.ixSignal</t>
-  </si>
-  <si>
-    <t>stCommands.cmdStopCommon.ixSignal</t>
-  </si>
-  <si>
-    <t>stCommands.cmdEmergencyStopCommon.ixSignal</t>
-  </si>
-  <si>
-    <t>stCommands.cmdResetAll.ixSignal</t>
-  </si>
-  <si>
-    <t>ICUR_PRECENT</t>
-  </si>
-  <si>
-    <t>rElectricityMeter</t>
-  </si>
-  <si>
-    <t>EFFICIENCY_LIMIT_RATE</t>
-  </si>
-  <si>
-    <t>ANNUNCIATOR_LIGHT_HZ</t>
-  </si>
-  <si>
-    <t>VFD_SMOOTH_SET_FREQUENCY</t>
-  </si>
-  <si>
-    <t>VFD_FREQUENCY_MAX</t>
-  </si>
-  <si>
-    <t>VFD_FREQUENCY_STEP</t>
-  </si>
-  <si>
-    <t>VFD_FREQUENCY_INACCURANCY</t>
-  </si>
-  <si>
-    <t>VFD_FREQUENCY_SYNC_TOLERANCE</t>
-  </si>
-  <si>
-    <t>MOTOR_FREQUENCY_CONVEYOR</t>
-  </si>
-  <si>
-    <t>MOTOR_FREQUENCY_DUMPER_CONVEYOR</t>
-  </si>
-  <si>
-    <t>MOTOR_FREQUENCY_DUMPER_ROTATION</t>
-  </si>
-  <si>
-    <t>CONVEYOR_DEAFULT_SPEED</t>
-  </si>
-  <si>
-    <t>BUNKER_WORK_PRECENT_1</t>
-  </si>
-  <si>
-    <t>BUNKER_WORK_PRECENT_2</t>
-  </si>
-  <si>
-    <t>BUNKER_WORK_PRECENT_3</t>
-  </si>
-  <si>
-    <t>BUNKER_MINIMAL_WEIGHT</t>
-  </si>
-  <si>
-    <t>MOTOR_VIBFEEDER_TEMP_POINTS.LL_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_VIBFEEDER_TEMP_POINTS.L_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_VIBFEEDER_TEMP_POINTS.H_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_VIBFEEDER_TEMP_POINTS.HH_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_VIBFEEDER_CURRENT_POINTS.LL_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_VIBFEEDER_CURRENT_POINTS.L_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_VIBFEEDER_CURRENT_POINTS.H_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_VIBFEEDER_CURRENT_POINTS.HH_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_VIBRATOR_CURRENT_POINTS.LL_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_VIBRATOR_CURRENT_POINTS.L_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_VIBRATOR_CURRENT_POINTS.H_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_VIBRATOR_CURRENT_POINTS.HH_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_CONVEYOR_CURRENT_POINTS.LL_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_CONVEYOR_CURRENT_POINTS.L_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_CONVEYOR_CURRENT_POINTS.H_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_CONVEYOR_CURRENT_POINTS.HH_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_ROTATION_CURRENT_POINTS.LL_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_ROTATION_CURRENT_POINTS.L_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_ROTATION_CURRENT_POINTS.H_Value</t>
-  </si>
-  <si>
-    <t>MOTOR_ROTATION_CURRENT_POINTS.HH_Value</t>
-  </si>
-  <si>
-    <t>VIBRATOR_SETTINGS.TIME_ACTIVE</t>
-  </si>
-  <si>
-    <t>VIBRATOR_SETTINGS.TIME_PAUSE_VIBRATOR</t>
-  </si>
-  <si>
-    <t>VIBRATOR_SETTINGS.TIME_PAUSE_FB</t>
-  </si>
-  <si>
-    <t>PNEUMO_SETTINGS.TIME_ACTIVE</t>
-  </si>
-  <si>
-    <t>PNEUMO_SETTINGS.TIME_PAUSE_VIBRATOR</t>
-  </si>
-  <si>
-    <t>PNEUMO_SETTINGS.TIME_PAUSE_FB</t>
-  </si>
-  <si>
-    <t>TIME_WAITING_FEEDBACK</t>
-  </si>
-  <si>
-    <t>PNEUMATIC_COLLAPSE_TIME</t>
-  </si>
-  <si>
-    <t>DUMPER_CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_FIRST_SIGNAL</t>
-  </si>
-  <si>
-    <t>DUMPER_CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_FIRST_SIGNAL_PAUSE</t>
-  </si>
-  <si>
-    <t>DUMPER_CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_SECOND_SIGNAL</t>
-  </si>
-  <si>
-    <t>DUMPER_CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_SECOND_SIGNAL_PAUSE</t>
-  </si>
-  <si>
-    <t>CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_FIRST_SIGNAL</t>
-  </si>
-  <si>
-    <t>CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_FIRST_SIGNAL_PAUSE</t>
-  </si>
-  <si>
-    <t>CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_SECOND_SIGNAL</t>
-  </si>
-  <si>
-    <t>CONVEYOR_PRESTART_ALARM_SETTINGS.TIME_SECOND_SIGNAL_PAUSE</t>
-  </si>
-  <si>
-    <t>stDumper.cmdStartConveyor</t>
-  </si>
-  <si>
-    <t>stDumper.cmdStopConveyor</t>
-  </si>
-  <si>
-    <t>stDumper.cmdEmergencyStop</t>
-  </si>
-  <si>
-    <t>stDumper.cmdReset</t>
-  </si>
-  <si>
-    <t>DUMPER_CONVEYOR_PRESTART_ALARM_SETTINGS.OPTION_ENABLE</t>
-  </si>
-  <si>
-    <t>stDumper.cmdSetModeRepair</t>
-  </si>
-  <si>
-    <t>stDumper.cmdSetModeManual</t>
-  </si>
-  <si>
-    <t>stDumper.cmdSetModeAuto</t>
-  </si>
-  <si>
-    <t>stDumper.cmdTurnLeft</t>
-  </si>
-  <si>
-    <t>stDumper.cmdTurnRight</t>
-  </si>
-  <si>
-    <t>stDumper.cmdStopRotation</t>
-  </si>
-  <si>
-    <t>stDumper.MotorConveyor[1].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stDumper.MotorConveyor[2].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stDumper.MotorRotation[1].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stDumper.MotorRotation[2].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stConveyor.cmdStartConveyor</t>
-  </si>
-  <si>
-    <t>stConveyor.cmdStopConveyor</t>
-  </si>
-  <si>
-    <t>stConveyor.cmdEmergencyStop</t>
-  </si>
-  <si>
-    <t>stConveyor.cmdReset</t>
-  </si>
-  <si>
-    <t>CONVEYOR_PRESTART_ALARM_SETTINGS.OPTION_ENABLE</t>
-  </si>
-  <si>
-    <t>stConveyor.MotorConveyor[1].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stConveyor.MotorConveyor[2].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stConveyor.cmdSetModeRepair</t>
-  </si>
-  <si>
-    <t>stConveyor.cmdSetModeManual</t>
-  </si>
-  <si>
-    <t>stConveyor.cmdSetModeAuto</t>
-  </si>
-  <si>
-    <t>stBunker[1].cmdStartFeeder</t>
-  </si>
-  <si>
-    <t>stBunker[1].cmdStopFeeder</t>
-  </si>
-  <si>
-    <t>stBunker[1].cmdEmergencyStopFeeder</t>
-  </si>
-  <si>
-    <t>stBunker[1].cmdReset</t>
-  </si>
-  <si>
-    <t>stBunker[1].cmdAddVib1</t>
-  </si>
-  <si>
-    <t>stBunker[1].cmdAddVib2</t>
-  </si>
-  <si>
-    <t>stBunker[1].cmdAddVib3</t>
-  </si>
-  <si>
-    <t>stBunker[1].cmdAddVib4</t>
-  </si>
-  <si>
-    <t>stBunker[1].MotorVibrator[1].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[1].MotorVibrator[2].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[1].MotorVibrator[3].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[1].MotorVibrator[4].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[1].MotorVibFeeder[1].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[1].MotorVibFeeder[2].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[1].cmdSetModeRepair</t>
-  </si>
-  <si>
-    <t>stBunker[1].cmdSetModeManual</t>
-  </si>
-  <si>
-    <t>stBunker[1].cmdSetModeAuto</t>
-  </si>
-  <si>
-    <t>stBunker[2].cmdStartFeeder</t>
-  </si>
-  <si>
-    <t>stBunker[2].cmdStopFeeder</t>
-  </si>
-  <si>
-    <t>stBunker[2].cmdEmergencyStopFeeder</t>
-  </si>
-  <si>
-    <t>stBunker[2].cmdReset</t>
-  </si>
-  <si>
-    <t>stBunker[2].cmdAddVib1</t>
-  </si>
-  <si>
-    <t>stBunker[2].cmdAddVib2</t>
-  </si>
-  <si>
-    <t>stBunker[2].cmdAddVib3</t>
-  </si>
-  <si>
-    <t>stBunker[2].cmdAddVib4</t>
-  </si>
-  <si>
-    <t>stBunker[2].MotorVibrator[1].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[2].MotorVibrator[2].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[2].MotorVibrator[3].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[2].MotorVibrator[4].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[2].MotorVibFeeder[1].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[2].MotorVibFeeder[2].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[2].cmdSetModeRepair</t>
-  </si>
-  <si>
-    <t>stBunker[2].cmdSetModeManual</t>
-  </si>
-  <si>
-    <t>stBunker[2].cmdSetModeAuto</t>
-  </si>
-  <si>
-    <t>stBunker[3].cmdStartFeeder</t>
-  </si>
-  <si>
-    <t>stBunker[3].cmdStopFeeder</t>
-  </si>
-  <si>
-    <t>stBunker[3].cmdEmergencyStopFeeder</t>
-  </si>
-  <si>
-    <t>stBunker[3].cmdReset</t>
-  </si>
-  <si>
-    <t>stBunker[3].cmdAddVib1</t>
-  </si>
-  <si>
-    <t>stBunker[3].cmdAddVib2</t>
-  </si>
-  <si>
-    <t>stBunker[3].cmdAddVib3</t>
-  </si>
-  <si>
-    <t>stBunker[3].cmdAddVib4</t>
-  </si>
-  <si>
-    <t>stBunker[3].MotorVibrator[1].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[3].MotorVibrator[2].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[3].MotorVibrator[3].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[3].MotorVibrator[4].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[3].MotorVibFeeder[1].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[3].MotorVibFeeder[2].VFD.cmdSetFrequency</t>
-  </si>
-  <si>
-    <t>stBunker[3].cmdSetModeRepair</t>
-  </si>
-  <si>
-    <t>stBunker[3].cmdSetModeManual</t>
-  </si>
-  <si>
-    <t>stBunker[3].cmdSetModeAuto</t>
-  </si>
-  <si>
-    <t>Команда общего пуска</t>
-  </si>
-  <si>
-    <t>Команда общего останова</t>
-  </si>
-  <si>
-    <t>Команда общей аварийной остановки</t>
-  </si>
-  <si>
-    <t>Сброс всех ошибок</t>
-  </si>
-  <si>
-    <t>Коэффициент использования установленной мощности (в процентах)</t>
-  </si>
-  <si>
-    <t>Раход электроэнергии</t>
-  </si>
-  <si>
-    <t>Коэффицент ограничения производительности (0-1)</t>
-  </si>
-  <si>
-    <t>Световая индикация Гц</t>
-  </si>
-  <si>
-    <t>Опция плавного задания частоты</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Допустимая разница частот для синхронизации моторов</t>
-  </si>
-  <si>
-    <t>Частота мотора конвейера</t>
-  </si>
-  <si>
-    <t>Частота мотора конвейера отвалообразователя</t>
-  </si>
-  <si>
-    <t>Частота мотора поворота отвалообразователя</t>
-  </si>
-  <si>
-    <t>Скорость конвейера</t>
-  </si>
-  <si>
-    <t>Уставка пропорции шихтования для бункера 1</t>
-  </si>
-  <si>
-    <t>Уставка пропорции шихтования для бункера 2</t>
-  </si>
-  <si>
-    <t>Уставка пропорции шихтования для бункера 3</t>
-  </si>
-  <si>
-    <t>Уставка минимального веса бункера. Результат &lt;= считывается алгоритмом как пустой бункер.</t>
-  </si>
-  <si>
-    <t>Уставка Low-Low</t>
-  </si>
-  <si>
-    <t>Уставка Low</t>
-  </si>
-  <si>
-    <t>Уставка High</t>
-  </si>
-  <si>
-    <t>Уставка High-High</t>
-  </si>
-  <si>
-    <t>Время активной работы вибратора</t>
-  </si>
-  <si>
-    <t>Время паузы вибратора между циклами</t>
-  </si>
-  <si>
-    <t>Время паузы ФБ между подходами</t>
-  </si>
-  <si>
-    <t>Таймер ожидания пропавшего сигнала обратной связи работы механизма</t>
-  </si>
-  <si>
-    <t>Уставка времени таймера пневмообрушения</t>
-  </si>
-  <si>
-    <t>Время звучания первого сигнала</t>
-  </si>
-  <si>
-    <t>Пауза после первого сигнала</t>
-  </si>
-  <si>
-    <t>Время звучания второго сигнала</t>
-  </si>
-  <si>
-    <t>Пауза после втотрого сигнала</t>
-  </si>
-  <si>
-    <t>Команда пуска конвейера</t>
-  </si>
-  <si>
-    <t>Команда останова конвейера</t>
-  </si>
-  <si>
-    <t>Команда аварийной остановки</t>
-  </si>
-  <si>
-    <t>Сброс ошибок</t>
-  </si>
-  <si>
-    <t>Опция на включение ППЗ в алгоритм</t>
-  </si>
-  <si>
-    <t>Установить режим Ремонт</t>
-  </si>
-  <si>
-    <t>Установить режим Ручной</t>
-  </si>
-  <si>
-    <t>Установить режим Авто</t>
-  </si>
-  <si>
-    <t>Команда поворота влево</t>
-  </si>
-  <si>
-    <t>Команда поворота вправо</t>
-  </si>
-  <si>
-    <t>Команда остановка поворота</t>
-  </si>
-  <si>
-    <t>Ручное задание частоты</t>
-  </si>
-  <si>
-    <t>Команда "Пуск питателя"</t>
-  </si>
-  <si>
-    <t>Команда "Стоп питателя"</t>
-  </si>
-  <si>
-    <t>Команда "Аварийная остановка"</t>
-  </si>
-  <si>
-    <t>Добавление мотора вибратора 1 в работу</t>
-  </si>
-  <si>
-    <t>Добавление мотора вибратора 2 в работу</t>
-  </si>
-  <si>
-    <t>Добавление мотора вибратора 3 в работу</t>
-  </si>
-  <si>
-    <t>Добавление мотора вибратора 4 в работу</t>
-  </si>
-  <si>
-    <t>Общие системные статусы (0-29)</t>
-  </si>
-  <si>
-    <t>Бункер 1 (30-89)</t>
-  </si>
-  <si>
-    <t>Бункер 2 (90-149)</t>
-  </si>
-  <si>
-    <t>Бункер 3 (150-209)</t>
-  </si>
-  <si>
-    <t>Отвалообразователь - Конвейер (210-239)</t>
-  </si>
-  <si>
-    <t>Отвалообразователь - Поворот (240-269)</t>
-  </si>
-  <si>
-    <t>Конвейер (270-299)</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>30.1</t>
-  </si>
-  <si>
-    <t>30.2</t>
-  </si>
-  <si>
-    <t>30.3</t>
-  </si>
-  <si>
-    <t>30.4</t>
-  </si>
-  <si>
-    <t>30.5</t>
-  </si>
-  <si>
-    <t>30.6</t>
-  </si>
-  <si>
-    <t>30.7</t>
-  </si>
-  <si>
-    <t>30.8</t>
-  </si>
-  <si>
-    <t>30.12</t>
-  </si>
-  <si>
-    <t>30.13</t>
-  </si>
-  <si>
-    <t>30.14</t>
-  </si>
-  <si>
-    <t>48-49</t>
-  </si>
-  <si>
-    <t>50-51</t>
-  </si>
-  <si>
-    <t>52-53</t>
-  </si>
-  <si>
-    <t>54-55</t>
-  </si>
-  <si>
-    <t>56-57</t>
-  </si>
-  <si>
-    <t>58-59</t>
-  </si>
-  <si>
-    <t>60-61</t>
-  </si>
-  <si>
-    <t>70-71</t>
-  </si>
-  <si>
-    <t>72-73</t>
-  </si>
-  <si>
-    <t>74-75</t>
-  </si>
-  <si>
-    <t>76-77</t>
-  </si>
-  <si>
-    <t>78-79</t>
-  </si>
-  <si>
-    <t>80-81</t>
-  </si>
-  <si>
-    <t>82-83</t>
-  </si>
-  <si>
-    <t>90.0</t>
-  </si>
-  <si>
-    <t>90.1</t>
-  </si>
-  <si>
-    <t>90.2</t>
-  </si>
-  <si>
-    <t>90.3</t>
-  </si>
-  <si>
-    <t>90.4</t>
-  </si>
-  <si>
-    <t>90.5</t>
-  </si>
-  <si>
-    <t>90.6</t>
-  </si>
-  <si>
-    <t>90.7</t>
-  </si>
-  <si>
-    <t>90.8</t>
-  </si>
-  <si>
-    <t>90.12</t>
-  </si>
-  <si>
-    <t>90.13</t>
-  </si>
-  <si>
-    <t>90.14</t>
-  </si>
-  <si>
-    <t>100-101</t>
-  </si>
-  <si>
-    <t>102-103</t>
-  </si>
-  <si>
-    <t>104-105</t>
-  </si>
-  <si>
-    <t>106-107</t>
-  </si>
-  <si>
-    <t>108-109</t>
-  </si>
-  <si>
-    <t>110-111</t>
-  </si>
-  <si>
-    <t>112-113</t>
-  </si>
-  <si>
-    <t>114-115</t>
-  </si>
-  <si>
-    <t>116-117</t>
-  </si>
-  <si>
-    <t>118-119</t>
-  </si>
-  <si>
-    <t>120-121</t>
-  </si>
-  <si>
-    <t>150.0</t>
-  </si>
-  <si>
-    <t>150.1</t>
-  </si>
-  <si>
-    <t>150.2</t>
-  </si>
-  <si>
-    <t>150.3</t>
-  </si>
-  <si>
-    <t>150.4</t>
-  </si>
-  <si>
-    <t>150.5</t>
-  </si>
-  <si>
-    <t>150.6</t>
-  </si>
-  <si>
-    <t>150.7</t>
-  </si>
-  <si>
-    <t>150.8</t>
-  </si>
-  <si>
-    <t>150.12</t>
-  </si>
-  <si>
-    <t>150.13</t>
-  </si>
-  <si>
-    <t>150.14</t>
-  </si>
-  <si>
-    <t>180-181</t>
-  </si>
-  <si>
-    <t>190-191</t>
-  </si>
-  <si>
-    <t>192-193</t>
-  </si>
-  <si>
-    <t>194-195</t>
-  </si>
-  <si>
-    <t>196-197</t>
-  </si>
-  <si>
-    <t>198-199</t>
-  </si>
-  <si>
-    <t>200-201</t>
-  </si>
-  <si>
-    <t>202-203</t>
-  </si>
-  <si>
-    <t>210.4</t>
-  </si>
-  <si>
-    <t>210.5</t>
-  </si>
-  <si>
-    <t>210.6</t>
-  </si>
-  <si>
-    <t>210.11</t>
-  </si>
-  <si>
-    <t>210.12</t>
-  </si>
-  <si>
-    <t>210.13</t>
-  </si>
-  <si>
-    <t>210.14</t>
-  </si>
-  <si>
-    <t>210.15</t>
-  </si>
-  <si>
-    <t>211.3</t>
-  </si>
-  <si>
-    <t>211.4</t>
-  </si>
-  <si>
-    <t>211.5</t>
-  </si>
-  <si>
-    <t>211.6</t>
-  </si>
-  <si>
-    <t>211.7</t>
-  </si>
-  <si>
-    <t>211.8</t>
-  </si>
-  <si>
-    <t>211.9</t>
-  </si>
-  <si>
-    <t>211.10</t>
-  </si>
-  <si>
-    <t>211.11</t>
-  </si>
-  <si>
-    <t>211.12</t>
-  </si>
-  <si>
-    <t>211.13</t>
-  </si>
-  <si>
-    <t>211.14</t>
-  </si>
-  <si>
-    <t>220-221</t>
-  </si>
-  <si>
-    <t>222-223</t>
-  </si>
-  <si>
-    <t>246-247</t>
-  </si>
-  <si>
-    <t>248-249</t>
-  </si>
-  <si>
-    <t>250-251</t>
-  </si>
-  <si>
-    <t>252-253</t>
-  </si>
-  <si>
-    <t>270.11</t>
-  </si>
-  <si>
-    <t>270.12</t>
-  </si>
-  <si>
-    <t>270.13</t>
-  </si>
-  <si>
-    <t>270.14</t>
-  </si>
-  <si>
-    <t>270.15</t>
-  </si>
-  <si>
-    <t>271.0</t>
-  </si>
-  <si>
-    <t>271.1</t>
-  </si>
-  <si>
-    <t>271.2</t>
-  </si>
-  <si>
-    <t>271.3</t>
-  </si>
-  <si>
-    <t>271.4</t>
-  </si>
-  <si>
-    <t>271.5</t>
-  </si>
-  <si>
-    <t>271.6</t>
-  </si>
-  <si>
-    <t>271.7</t>
-  </si>
-  <si>
-    <t>271.8</t>
-  </si>
-  <si>
-    <t>271.9</t>
-  </si>
-  <si>
-    <t>271.10</t>
-  </si>
-  <si>
-    <t>271.11</t>
-  </si>
-  <si>
-    <t>271.12</t>
-  </si>
-  <si>
-    <t>271.13</t>
-  </si>
-  <si>
-    <t>271.14</t>
   </si>
   <si>
     <t>xStateAutoWorking</t>
@@ -2613,7 +2547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2668,16 +2602,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -2685,16 +2619,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -2702,16 +2636,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -2719,16 +2653,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -2736,16 +2670,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -2753,16 +2687,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -2770,16 +2704,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -2787,67 +2721,67 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -2855,16 +2789,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -2872,16 +2806,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -2889,16 +2823,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -2906,16 +2840,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -2923,16 +2857,16 @@
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -2940,67 +2874,67 @@
         <v>6</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3008,67 +2942,67 @@
         <v>7</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3076,67 +3010,67 @@
         <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3144,16 +3078,16 @@
         <v>9</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3161,16 +3095,16 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3178,16 +3112,16 @@
         <v>9</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3195,16 +3129,16 @@
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3212,16 +3146,16 @@
         <v>9</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3229,16 +3163,16 @@
         <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3246,16 +3180,16 @@
         <v>9</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3263,16 +3197,16 @@
         <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3280,16 +3214,16 @@
         <v>9</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3297,16 +3231,16 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3314,67 +3248,67 @@
         <v>9</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3382,16 +3316,16 @@
         <v>10</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3399,16 +3333,16 @@
         <v>10</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3416,16 +3350,16 @@
         <v>10</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3433,16 +3367,16 @@
         <v>10</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3450,16 +3384,16 @@
         <v>10</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3467,16 +3401,16 @@
         <v>10</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3484,16 +3418,16 @@
         <v>10</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3501,16 +3435,16 @@
         <v>10</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3518,16 +3452,16 @@
         <v>10</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3535,16 +3469,16 @@
         <v>10</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3552,67 +3486,67 @@
         <v>10</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3620,67 +3554,67 @@
         <v>11</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3688,16 +3622,16 @@
         <v>12</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3705,16 +3639,16 @@
         <v>12</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3722,16 +3656,16 @@
         <v>12</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3739,16 +3673,16 @@
         <v>12</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3756,16 +3690,16 @@
         <v>12</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>325</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3773,16 +3707,16 @@
         <v>12</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>326</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3790,16 +3724,16 @@
         <v>12</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>219</v>
+        <v>143</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3807,16 +3741,16 @@
         <v>12</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
@@ -3824,16 +3758,16 @@
         <v>12</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
@@ -3841,1091 +3775,836 @@
         <v>12</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>322</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>329</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>329</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
     </row>
     <row r="88" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>329</v>
+        <v>257</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>329</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>321</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>333</v>
+        <v>257</v>
       </c>
     </row>
     <row r="107" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
     </row>
     <row r="108" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
     </row>
     <row r="109" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
     </row>
     <row r="110" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
     </row>
     <row r="111" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
     </row>
     <row r="112" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
     </row>
     <row r="113" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
     </row>
     <row r="114" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
     </row>
     <row r="115" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
     </row>
     <row r="117" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
     </row>
     <row r="118" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>325</v>
+        <v>256</v>
       </c>
     </row>
     <row r="119" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B119" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>18</v>
+      </c>
+      <c r="B120" t="s">
         <v>133</v>
       </c>
-      <c r="C119" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A120" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A121" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A122" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A123" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A124" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A125" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A126" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A127" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A128" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A129" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A130" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A131" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A132" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A133" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A134" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" t="s">
-        <v>16</v>
-      </c>
-      <c r="B135" t="s">
-        <v>149</v>
-      </c>
-      <c r="C135" t="s">
-        <v>150</v>
-      </c>
-      <c r="D135" t="s">
-        <v>285</v>
-      </c>
-      <c r="E135" t="s">
-        <v>325</v>
+      <c r="C120" t="s">
+        <v>134</v>
+      </c>
+      <c r="D120" t="s">
+        <v>251</v>
+      </c>
+      <c r="E120" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E134"/>
+  <autoFilter ref="A1:E119"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4984,3606 +4663,3606 @@
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>678</v>
+        <v>656</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>679</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>681</v>
+        <v>659</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>683</v>
+        <v>661</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>686</v>
+        <v>664</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>687</v>
+        <v>665</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>688</v>
+        <v>666</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>689</v>
+        <v>667</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>690</v>
+        <v>668</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>692</v>
+        <v>670</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>693</v>
+        <v>671</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>694</v>
+        <v>672</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>696</v>
+        <v>674</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>697</v>
+        <v>675</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>700</v>
+        <v>678</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>702</v>
+        <v>680</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A48" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>688</v>
+        <v>666</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>689</v>
+        <v>667</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>690</v>
+        <v>668</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>692</v>
+        <v>670</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>693</v>
+        <v>671</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>694</v>
+        <v>672</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>696</v>
+        <v>674</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>697</v>
+        <v>675</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>700</v>
+        <v>678</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>702</v>
+        <v>680</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="82" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="86" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="88" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
     </row>
     <row r="91" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>688</v>
+        <v>666</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>689</v>
+        <v>667</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>690</v>
+        <v>668</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>692</v>
+        <v>670</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>693</v>
+        <v>671</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>694</v>
+        <v>672</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>696</v>
+        <v>674</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>697</v>
+        <v>675</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>700</v>
+        <v>678</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
     </row>
     <row r="107" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>702</v>
+        <v>680</v>
       </c>
     </row>
     <row r="108" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
     </row>
     <row r="109" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="110" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="111" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="112" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="113" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="114" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="115" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="117" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="118" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="119" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="120" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="121" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="122" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="123" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="124" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="125" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="126" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="127" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
     </row>
     <row r="128" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>591</v>
+        <v>569</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
     </row>
     <row r="129" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
     </row>
     <row r="130" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
     </row>
     <row r="131" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>688</v>
+        <v>666</v>
       </c>
     </row>
     <row r="132" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>595</v>
+        <v>573</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>689</v>
+        <v>667</v>
       </c>
     </row>
     <row r="133" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>596</v>
+        <v>574</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
     </row>
     <row r="134" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>597</v>
+        <v>575</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>709</v>
+        <v>687</v>
       </c>
     </row>
     <row r="135" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>694</v>
+        <v>672</v>
       </c>
     </row>
     <row r="136" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>599</v>
+        <v>577</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
     </row>
     <row r="137" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>696</v>
+        <v>674</v>
       </c>
     </row>
     <row r="138" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>78</v>
+        <v>391</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>710</v>
+        <v>688</v>
       </c>
     </row>
     <row r="139" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>602</v>
+        <v>580</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>711</v>
+        <v>689</v>
       </c>
     </row>
     <row r="140" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>712</v>
+        <v>690</v>
       </c>
     </row>
     <row r="141" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A141" s="4" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>604</v>
+        <v>582</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>713</v>
+        <v>691</v>
       </c>
     </row>
     <row r="142" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
     </row>
     <row r="143" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A143" s="4" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>606</v>
+        <v>584</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>715</v>
+        <v>693</v>
       </c>
     </row>
     <row r="144" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>716</v>
+        <v>694</v>
       </c>
     </row>
     <row r="145" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A145" s="4" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>717</v>
+        <v>695</v>
       </c>
     </row>
     <row r="146" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>718</v>
+        <v>696</v>
       </c>
     </row>
     <row r="147" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A147" s="4" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>719</v>
+        <v>697</v>
       </c>
     </row>
     <row r="148" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>720</v>
+        <v>698</v>
       </c>
     </row>
     <row r="149" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A149" s="4" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>721</v>
+        <v>699</v>
       </c>
     </row>
     <row r="150" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>722</v>
+        <v>700</v>
       </c>
     </row>
     <row r="151" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A151" s="4" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>723</v>
+        <v>701</v>
       </c>
     </row>
     <row r="152" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>615</v>
+        <v>593</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>724</v>
+        <v>702</v>
       </c>
     </row>
     <row r="153" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A153" s="4" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>725</v>
+        <v>703</v>
       </c>
     </row>
     <row r="154" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>617</v>
+        <v>595</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>726</v>
+        <v>704</v>
       </c>
     </row>
     <row r="155" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A155" s="4" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>618</v>
+        <v>596</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>727</v>
+        <v>705</v>
       </c>
     </row>
     <row r="156" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>728</v>
+        <v>706</v>
       </c>
     </row>
     <row r="157" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A157" s="4" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>620</v>
+        <v>598</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>729</v>
+        <v>707</v>
       </c>
     </row>
     <row r="158" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>621</v>
+        <v>599</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>730</v>
+        <v>708</v>
       </c>
     </row>
     <row r="159" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A159" s="4" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>697</v>
+        <v>675</v>
       </c>
     </row>
     <row r="160" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>623</v>
+        <v>601</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
     </row>
     <row r="161" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A161" s="4" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>624</v>
+        <v>602</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
     </row>
     <row r="162" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>85</v>
+        <v>409</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>625</v>
+        <v>603</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="163" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A163" s="4" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>86</v>
+        <v>410</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>626</v>
+        <v>604</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="164" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>87</v>
+        <v>411</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>627</v>
+        <v>605</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="165" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A165" s="4" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>88</v>
+        <v>412</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>628</v>
+        <v>606</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="166" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="167" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A167" s="4" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>630</v>
+        <v>608</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="168" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>631</v>
+        <v>609</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>731</v>
+        <v>709</v>
       </c>
     </row>
     <row r="169" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A169" s="4" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>632</v>
+        <v>610</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>732</v>
+        <v>710</v>
       </c>
     </row>
     <row r="170" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>633</v>
+        <v>611</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>733</v>
+        <v>711</v>
       </c>
     </row>
     <row r="171" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A171" s="4" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>634</v>
+        <v>612</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>734</v>
+        <v>712</v>
       </c>
     </row>
     <row r="172" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>94</v>
+        <v>415</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>635</v>
+        <v>613</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="173" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A173" s="4" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>95</v>
+        <v>416</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>636</v>
+        <v>614</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="174" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>637</v>
+        <v>615</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="175" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A175" s="4" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>638</v>
+        <v>616</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="176" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>639</v>
+        <v>617</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="177" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A177" s="4" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>640</v>
+        <v>618</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="178" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>641</v>
+        <v>619</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>688</v>
+        <v>666</v>
       </c>
     </row>
     <row r="179" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A179" s="4" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>642</v>
+        <v>620</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>689</v>
+        <v>667</v>
       </c>
     </row>
     <row r="180" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>643</v>
+        <v>621</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
     </row>
     <row r="181" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A181" s="4" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>709</v>
+        <v>687</v>
       </c>
     </row>
     <row r="182" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>645</v>
+        <v>623</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>694</v>
+        <v>672</v>
       </c>
     </row>
     <row r="183" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A183" s="4" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>646</v>
+        <v>624</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
     </row>
     <row r="184" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>647</v>
+        <v>625</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>696</v>
+        <v>674</v>
       </c>
     </row>
     <row r="185" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A185" s="4" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>711</v>
+        <v>689</v>
       </c>
     </row>
     <row r="186" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>712</v>
+        <v>690</v>
       </c>
     </row>
     <row r="187" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A187" s="4" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>735</v>
+        <v>713</v>
       </c>
     </row>
     <row r="188" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>651</v>
+        <v>629</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>713</v>
+        <v>691</v>
       </c>
     </row>
     <row r="189" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A189" s="4" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>652</v>
+        <v>630</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
     </row>
     <row r="190" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>653</v>
+        <v>631</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>715</v>
+        <v>693</v>
       </c>
     </row>
     <row r="191" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A191" s="4" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>654</v>
+        <v>632</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>716</v>
+        <v>694</v>
       </c>
     </row>
     <row r="192" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>655</v>
+        <v>633</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>717</v>
+        <v>695</v>
       </c>
     </row>
     <row r="193" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A193" s="4" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>718</v>
+        <v>696</v>
       </c>
     </row>
     <row r="194" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>657</v>
+        <v>635</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>719</v>
+        <v>697</v>
       </c>
     </row>
     <row r="195" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A195" s="4" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>658</v>
+        <v>636</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>720</v>
+        <v>698</v>
       </c>
     </row>
     <row r="196" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>659</v>
+        <v>637</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>721</v>
+        <v>699</v>
       </c>
     </row>
     <row r="197" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A197" s="4" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>660</v>
+        <v>638</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>722</v>
+        <v>700</v>
       </c>
     </row>
     <row r="198" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>661</v>
+        <v>639</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>723</v>
+        <v>701</v>
       </c>
     </row>
     <row r="199" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A199" s="4" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>662</v>
+        <v>640</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>724</v>
+        <v>702</v>
       </c>
     </row>
     <row r="200" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>725</v>
+        <v>703</v>
       </c>
     </row>
     <row r="201" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A201" s="4" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>664</v>
+        <v>642</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>726</v>
+        <v>704</v>
       </c>
     </row>
     <row r="202" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>727</v>
+        <v>705</v>
       </c>
     </row>
     <row r="203" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A203" s="4" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>666</v>
+        <v>644</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>728</v>
+        <v>706</v>
       </c>
     </row>
     <row r="204" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>729</v>
+        <v>707</v>
       </c>
     </row>
     <row r="205" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A205" s="4" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>668</v>
+        <v>646</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>730</v>
+        <v>708</v>
       </c>
     </row>
     <row r="206" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>669</v>
+        <v>647</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>697</v>
+        <v>675</v>
       </c>
     </row>
     <row r="207" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A207" s="4" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>670</v>
+        <v>648</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
     </row>
     <row r="208" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
     </row>
     <row r="209" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A209" s="4" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>107</v>
+        <v>441</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>672</v>
+        <v>650</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="210" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>108</v>
+        <v>442</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="211" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A211" s="4" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>109</v>
+        <v>443</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>674</v>
+        <v>652</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="212" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>675</v>
+        <v>653</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="213" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1">
       <c r="A213" s="4" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B214" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C214" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D214" t="s">
-        <v>677</v>
+        <v>655</v>
       </c>
       <c r="E214" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
